--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>ONE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>188100</v>
+        <v>124000</v>
       </c>
       <c r="E8" s="3">
-        <v>156900</v>
+        <v>111600</v>
       </c>
       <c r="F8" s="3">
-        <v>135200</v>
+        <v>183500</v>
       </c>
       <c r="G8" s="3">
-        <v>92800</v>
+        <v>153000</v>
       </c>
       <c r="H8" s="3">
-        <v>134000</v>
+        <v>131900</v>
       </c>
       <c r="I8" s="3">
+        <v>90600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K8" s="3">
         <v>118300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>95200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>65500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>94500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>88900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>71900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>47500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>95700</v>
+        <v>74100</v>
       </c>
       <c r="E9" s="3">
-        <v>77800</v>
+        <v>72300</v>
       </c>
       <c r="F9" s="3">
-        <v>68300</v>
+        <v>93400</v>
       </c>
       <c r="G9" s="3">
-        <v>55500</v>
+        <v>75900</v>
       </c>
       <c r="H9" s="3">
-        <v>66200</v>
+        <v>66600</v>
       </c>
       <c r="I9" s="3">
+        <v>54100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K9" s="3">
         <v>52800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>47500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>75000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>46500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>39400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>35300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>26300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>92400</v>
+        <v>49900</v>
       </c>
       <c r="E10" s="3">
-        <v>79000</v>
+        <v>39300</v>
       </c>
       <c r="F10" s="3">
-        <v>66900</v>
+        <v>90100</v>
       </c>
       <c r="G10" s="3">
-        <v>37400</v>
+        <v>77100</v>
       </c>
       <c r="H10" s="3">
-        <v>67800</v>
+        <v>65300</v>
       </c>
       <c r="I10" s="3">
+        <v>36400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K10" s="3">
         <v>65500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-9500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>48000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>49500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>36600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>21300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>177200</v>
+        <v>131600</v>
       </c>
       <c r="E17" s="3">
-        <v>139200</v>
+        <v>127600</v>
       </c>
       <c r="F17" s="3">
-        <v>122300</v>
+        <v>172800</v>
       </c>
       <c r="G17" s="3">
-        <v>101600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
+        <v>135800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>119300</v>
       </c>
       <c r="I17" s="3">
+        <v>99100</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>110200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>84000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>67900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>65800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>46800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11000</v>
+        <v>-7700</v>
       </c>
       <c r="E18" s="3">
-        <v>17700</v>
+        <v>-16100</v>
       </c>
       <c r="F18" s="3">
-        <v>12900</v>
+        <v>10700</v>
       </c>
       <c r="G18" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
+        <v>17200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12600</v>
       </c>
       <c r="I18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9600</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>1000</v>
+        <v>9400</v>
       </c>
       <c r="G20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
+        <v>6800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>900</v>
       </c>
       <c r="I20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1248,55 +1321,61 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>7300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="G22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I22" s="3">
         <v>1100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1304,102 +1383,120 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N23" s="3">
         <v>17600</v>
       </c>
-      <c r="E23" s="3">
-        <v>21500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>17400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>12200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>17600</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>23000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>-3000</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>-500</v>
       </c>
       <c r="F24" s="3">
-        <v>4000</v>
+        <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>6600</v>
       </c>
       <c r="H24" s="3">
-        <v>6300</v>
+        <v>3900</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11300</v>
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
-        <v>14700</v>
+        <v>-14800</v>
       </c>
       <c r="F26" s="3">
-        <v>8400</v>
+        <v>11000</v>
       </c>
       <c r="G26" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
+        <v>14300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8200</v>
       </c>
       <c r="I26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12500</v>
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
-        <v>15700</v>
+        <v>-12600</v>
       </c>
       <c r="F27" s="3">
-        <v>9300</v>
+        <v>12200</v>
       </c>
       <c r="G27" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-109200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9600</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7000</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1000</v>
+        <v>-9400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
+        <v>-6800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-900</v>
       </c>
       <c r="I32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12500</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
-        <v>15700</v>
+        <v>-12600</v>
       </c>
       <c r="F33" s="3">
-        <v>9300</v>
+        <v>12200</v>
       </c>
       <c r="G33" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-109200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12500</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
-        <v>15700</v>
+        <v>-12600</v>
       </c>
       <c r="F35" s="3">
-        <v>9300</v>
+        <v>12200</v>
       </c>
       <c r="G35" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-109200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,101 +2138,115 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>198900</v>
+        <v>155000</v>
       </c>
       <c r="E41" s="3">
-        <v>190300</v>
+        <v>166800</v>
       </c>
       <c r="F41" s="3">
-        <v>69000</v>
+        <v>194000</v>
       </c>
       <c r="G41" s="3">
-        <v>111300</v>
+        <v>185600</v>
       </c>
       <c r="H41" s="3">
-        <v>202400</v>
+        <v>67300</v>
       </c>
       <c r="I41" s="3">
+        <v>108500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>197400</v>
+      </c>
+      <c r="K41" s="3">
         <v>217100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>82800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>121800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>145700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65200</v>
+        <v>53800</v>
       </c>
       <c r="E42" s="3">
-        <v>98100</v>
+        <v>62200</v>
       </c>
       <c r="F42" s="3">
-        <v>83800</v>
+        <v>63600</v>
       </c>
       <c r="G42" s="3">
-        <v>107400</v>
+        <v>95700</v>
       </c>
       <c r="H42" s="3">
-        <v>117100</v>
+        <v>81800</v>
       </c>
       <c r="I42" s="3">
+        <v>104700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K42" s="3">
         <v>120700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>77100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>119900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>61400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>2600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -2072,35 +2257,41 @@
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2334,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83000</v>
+        <v>108600</v>
       </c>
       <c r="E45" s="3">
-        <v>116500</v>
+        <v>60000</v>
       </c>
       <c r="F45" s="3">
-        <v>75800</v>
+        <v>81000</v>
       </c>
       <c r="G45" s="3">
-        <v>59700</v>
+        <v>113600</v>
       </c>
       <c r="H45" s="3">
-        <v>36300</v>
+        <v>73900</v>
       </c>
       <c r="I45" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K45" s="3">
         <v>32200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>25100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>299200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>347200</v>
+        <v>320000</v>
       </c>
       <c r="E46" s="3">
-        <v>404800</v>
+        <v>288900</v>
       </c>
       <c r="F46" s="3">
-        <v>228600</v>
+        <v>338700</v>
       </c>
       <c r="G46" s="3">
-        <v>278300</v>
+        <v>394900</v>
       </c>
       <c r="H46" s="3">
-        <v>355800</v>
+        <v>223000</v>
       </c>
       <c r="I46" s="3">
+        <v>271500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>347000</v>
+      </c>
+      <c r="K46" s="3">
         <v>370000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>185000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>544900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>238900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>216100</v>
+        <v>191700</v>
       </c>
       <c r="E47" s="3">
-        <v>196400</v>
+        <v>220700</v>
       </c>
       <c r="F47" s="3">
-        <v>193500</v>
+        <v>210800</v>
       </c>
       <c r="G47" s="3">
-        <v>170500</v>
+        <v>191600</v>
       </c>
       <c r="H47" s="3">
-        <v>71800</v>
+        <v>188800</v>
       </c>
       <c r="I47" s="3">
+        <v>166300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K47" s="3">
         <v>54000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>42800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>42900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>42100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>81500</v>
+        <v>327000</v>
       </c>
       <c r="E48" s="3">
-        <v>80100</v>
+        <v>347600</v>
       </c>
       <c r="F48" s="3">
-        <v>78600</v>
+        <v>79500</v>
       </c>
       <c r="G48" s="3">
-        <v>71100</v>
+        <v>78200</v>
       </c>
       <c r="H48" s="3">
-        <v>64600</v>
+        <v>76700</v>
       </c>
       <c r="I48" s="3">
+        <v>69400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K48" s="3">
         <v>59800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>52700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>41700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>40400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141100</v>
+        <v>185300</v>
       </c>
       <c r="E49" s="3">
-        <v>131500</v>
+        <v>136300</v>
       </c>
       <c r="F49" s="3">
-        <v>123700</v>
+        <v>137700</v>
       </c>
       <c r="G49" s="3">
-        <v>117400</v>
+        <v>128200</v>
       </c>
       <c r="H49" s="3">
-        <v>69500</v>
+        <v>120700</v>
       </c>
       <c r="I49" s="3">
+        <v>114500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K49" s="3">
         <v>68000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>54200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85200</v>
+        <v>62100</v>
       </c>
       <c r="E52" s="3">
-        <v>58700</v>
+        <v>90100</v>
       </c>
       <c r="F52" s="3">
-        <v>33600</v>
+        <v>83100</v>
       </c>
       <c r="G52" s="3">
-        <v>31000</v>
+        <v>57300</v>
       </c>
       <c r="H52" s="3">
-        <v>41400</v>
+        <v>32800</v>
       </c>
       <c r="I52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K52" s="3">
         <v>22300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>17600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>17000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>12400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>871100</v>
+        <v>1086100</v>
       </c>
       <c r="E54" s="3">
-        <v>871600</v>
+        <v>1083700</v>
       </c>
       <c r="F54" s="3">
-        <v>658100</v>
+        <v>849800</v>
       </c>
       <c r="G54" s="3">
-        <v>668200</v>
+        <v>850200</v>
       </c>
       <c r="H54" s="3">
-        <v>603000</v>
+        <v>641900</v>
       </c>
       <c r="I54" s="3">
+        <v>651800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>588200</v>
+      </c>
+      <c r="K54" s="3">
         <v>574100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>352400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>657100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>344000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,214 +2878,240 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>5300</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
+      <c r="F57" s="3">
+        <v>5200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>46200</v>
+        <v>62400</v>
       </c>
       <c r="E58" s="3">
-        <v>53300</v>
+        <v>55900</v>
       </c>
       <c r="F58" s="3">
-        <v>34100</v>
+        <v>45000</v>
       </c>
       <c r="G58" s="3">
-        <v>13600</v>
+        <v>52000</v>
       </c>
       <c r="H58" s="3">
+        <v>33200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K58" s="3">
         <v>6500</v>
       </c>
-      <c r="I58" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7900</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>435000</v>
+        <v>517300</v>
       </c>
       <c r="E59" s="3">
-        <v>439700</v>
+        <v>516800</v>
       </c>
       <c r="F59" s="3">
-        <v>392500</v>
+        <v>424300</v>
       </c>
       <c r="G59" s="3">
-        <v>422000</v>
+        <v>428900</v>
       </c>
       <c r="H59" s="3">
-        <v>372900</v>
+        <v>382900</v>
       </c>
       <c r="I59" s="3">
+        <v>411700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>363700</v>
+      </c>
+      <c r="K59" s="3">
         <v>375700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>328100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>719900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>293200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>486400</v>
+        <v>579700</v>
       </c>
       <c r="E60" s="3">
-        <v>493000</v>
+        <v>572800</v>
       </c>
       <c r="F60" s="3">
-        <v>426600</v>
+        <v>474500</v>
       </c>
       <c r="G60" s="3">
-        <v>435600</v>
+        <v>480900</v>
       </c>
       <c r="H60" s="3">
-        <v>381900</v>
+        <v>416100</v>
       </c>
       <c r="I60" s="3">
+        <v>425000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>372500</v>
+      </c>
+      <c r="K60" s="3">
         <v>382200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>336000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>721400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>295100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>193100</v>
+        <v>187200</v>
       </c>
       <c r="E61" s="3">
-        <v>191700</v>
+        <v>172400</v>
       </c>
       <c r="F61" s="3">
-        <v>48400</v>
+        <v>188400</v>
       </c>
       <c r="G61" s="3">
+        <v>187000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>47200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>56700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K61" s="3">
         <v>58100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>58100</v>
       </c>
-      <c r="I61" s="3">
-        <v>58100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>58100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25500</v>
+        <v>175800</v>
       </c>
       <c r="E62" s="3">
-        <v>19900</v>
+        <v>189800</v>
       </c>
       <c r="F62" s="3">
-        <v>21000</v>
+        <v>24900</v>
       </c>
       <c r="G62" s="3">
-        <v>8200</v>
+        <v>19500</v>
       </c>
       <c r="H62" s="3">
-        <v>5900</v>
+        <v>20500</v>
       </c>
       <c r="I62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>714400</v>
+        <v>947500</v>
       </c>
       <c r="E66" s="3">
-        <v>722300</v>
+        <v>941700</v>
       </c>
       <c r="F66" s="3">
-        <v>514900</v>
+        <v>696900</v>
       </c>
       <c r="G66" s="3">
-        <v>522700</v>
+        <v>704600</v>
       </c>
       <c r="H66" s="3">
-        <v>456000</v>
+        <v>502200</v>
       </c>
       <c r="I66" s="3">
+        <v>509900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>444800</v>
+      </c>
+      <c r="K66" s="3">
         <v>453800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>406700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>726200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>301200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,28 +3524,34 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>613000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>604300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>259700</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-616000</v>
+        <v>-615700</v>
       </c>
       <c r="E72" s="3">
-        <v>-628500</v>
+        <v>-613400</v>
       </c>
       <c r="F72" s="3">
-        <v>-644200</v>
+        <v>-600900</v>
       </c>
       <c r="G72" s="3">
-        <v>-653500</v>
+        <v>-613100</v>
       </c>
       <c r="H72" s="3">
-        <v>-650100</v>
+        <v>-628400</v>
       </c>
       <c r="I72" s="3">
+        <v>-637500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-634100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-662100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-670500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-674500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-232000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>156700</v>
+        <v>138600</v>
       </c>
       <c r="E76" s="3">
-        <v>149300</v>
+        <v>142000</v>
       </c>
       <c r="F76" s="3">
-        <v>143200</v>
+        <v>152900</v>
       </c>
       <c r="G76" s="3">
         <v>145600</v>
       </c>
       <c r="H76" s="3">
-        <v>147000</v>
+        <v>139700</v>
       </c>
       <c r="I76" s="3">
+        <v>142000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K76" s="3">
         <v>120400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-667300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-673400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-217000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12500</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
-        <v>15700</v>
+        <v>-12600</v>
       </c>
       <c r="F81" s="3">
-        <v>9300</v>
+        <v>12200</v>
       </c>
       <c r="G81" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-109200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,41 +4023,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4319,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>42300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,41 +4393,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,41 +4539,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-66700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,41 +4809,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,41 +4909,47 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-23900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>ONE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>124000</v>
+        <v>108200</v>
       </c>
       <c r="E8" s="3">
-        <v>111600</v>
+        <v>128600</v>
       </c>
       <c r="F8" s="3">
-        <v>183500</v>
+        <v>115800</v>
       </c>
       <c r="G8" s="3">
-        <v>153000</v>
+        <v>190400</v>
       </c>
       <c r="H8" s="3">
-        <v>131900</v>
+        <v>158800</v>
       </c>
       <c r="I8" s="3">
-        <v>90600</v>
+        <v>136900</v>
       </c>
       <c r="J8" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K8" s="3">
         <v>130700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>118300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>95200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>88900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>47500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>74100</v>
+        <v>70100</v>
       </c>
       <c r="E9" s="3">
-        <v>72300</v>
+        <v>76900</v>
       </c>
       <c r="F9" s="3">
-        <v>93400</v>
+        <v>75000</v>
       </c>
       <c r="G9" s="3">
-        <v>75900</v>
+        <v>96900</v>
       </c>
       <c r="H9" s="3">
-        <v>66600</v>
+        <v>78800</v>
       </c>
       <c r="I9" s="3">
-        <v>54100</v>
+        <v>69100</v>
       </c>
       <c r="J9" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K9" s="3">
         <v>64600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>26300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>49900</v>
+        <v>38100</v>
       </c>
       <c r="E10" s="3">
-        <v>39300</v>
+        <v>51800</v>
       </c>
       <c r="F10" s="3">
-        <v>90100</v>
+        <v>40800</v>
       </c>
       <c r="G10" s="3">
-        <v>77100</v>
+        <v>93500</v>
       </c>
       <c r="H10" s="3">
-        <v>65300</v>
+        <v>80000</v>
       </c>
       <c r="I10" s="3">
-        <v>36400</v>
+        <v>67800</v>
       </c>
       <c r="J10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K10" s="3">
         <v>66100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>65500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-9500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>48000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>131600</v>
+        <v>119400</v>
       </c>
       <c r="E17" s="3">
-        <v>127600</v>
+        <v>136600</v>
       </c>
       <c r="F17" s="3">
-        <v>172800</v>
+        <v>132400</v>
       </c>
       <c r="G17" s="3">
-        <v>135800</v>
+        <v>179300</v>
       </c>
       <c r="H17" s="3">
-        <v>119300</v>
+        <v>140900</v>
       </c>
       <c r="I17" s="3">
-        <v>99100</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+        <v>123800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>110200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>65800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>46800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7700</v>
+        <v>-11200</v>
       </c>
       <c r="E18" s="3">
-        <v>-16100</v>
+        <v>-8000</v>
       </c>
       <c r="F18" s="3">
-        <v>10700</v>
+        <v>-16700</v>
       </c>
       <c r="G18" s="3">
-        <v>17200</v>
+        <v>11100</v>
       </c>
       <c r="H18" s="3">
-        <v>12600</v>
+        <v>17900</v>
       </c>
       <c r="I18" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4300</v>
+        <v>-50000</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F20" s="3">
-        <v>9400</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
-        <v>900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>6800</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1327,59 +1364,62 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>7300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>3700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="F22" s="3">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="G22" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H22" s="3">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="I22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1389,114 +1429,123 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6000</v>
+        <v>-65400</v>
       </c>
       <c r="E23" s="3">
-        <v>-15300</v>
+        <v>-6200</v>
       </c>
       <c r="F23" s="3">
-        <v>17200</v>
+        <v>-15900</v>
       </c>
       <c r="G23" s="3">
-        <v>20900</v>
+        <v>17800</v>
       </c>
       <c r="H23" s="3">
-        <v>12100</v>
+        <v>21700</v>
       </c>
       <c r="I23" s="3">
-        <v>-6000</v>
+        <v>12600</v>
       </c>
       <c r="J23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3000</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
-        <v>6200</v>
-      </c>
       <c r="G24" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H24" s="3">
-        <v>3900</v>
+        <v>6800</v>
       </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3100</v>
+        <v>-65000</v>
       </c>
       <c r="E26" s="3">
-        <v>-14800</v>
+        <v>-3200</v>
       </c>
       <c r="F26" s="3">
-        <v>11000</v>
+        <v>-15400</v>
       </c>
       <c r="G26" s="3">
-        <v>14300</v>
+        <v>11400</v>
       </c>
       <c r="H26" s="3">
-        <v>8200</v>
+        <v>14900</v>
       </c>
       <c r="I26" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2300</v>
+        <v>-65900</v>
       </c>
       <c r="E27" s="3">
-        <v>-12600</v>
+        <v>-2400</v>
       </c>
       <c r="F27" s="3">
-        <v>12200</v>
+        <v>-13100</v>
       </c>
       <c r="G27" s="3">
-        <v>15300</v>
+        <v>12700</v>
       </c>
       <c r="H27" s="3">
-        <v>9100</v>
+        <v>15900</v>
       </c>
       <c r="I27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-109200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4300</v>
+        <v>50000</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="F32" s="3">
-        <v>-9400</v>
+        <v>-4500</v>
       </c>
       <c r="G32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-65900</v>
       </c>
       <c r="E33" s="3">
-        <v>-12600</v>
+        <v>-2400</v>
       </c>
       <c r="F33" s="3">
-        <v>12200</v>
+        <v>-13100</v>
       </c>
       <c r="G33" s="3">
-        <v>15300</v>
+        <v>12700</v>
       </c>
       <c r="H33" s="3">
-        <v>9100</v>
+        <v>15900</v>
       </c>
       <c r="I33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-109200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-65900</v>
       </c>
       <c r="E35" s="3">
-        <v>-12600</v>
+        <v>-2400</v>
       </c>
       <c r="F35" s="3">
-        <v>12200</v>
+        <v>-13100</v>
       </c>
       <c r="G35" s="3">
-        <v>15300</v>
+        <v>12700</v>
       </c>
       <c r="H35" s="3">
-        <v>9100</v>
+        <v>15900</v>
       </c>
       <c r="I35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-109200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,47 +2226,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>155000</v>
+        <v>191700</v>
       </c>
       <c r="E41" s="3">
-        <v>166800</v>
+        <v>160800</v>
       </c>
       <c r="F41" s="3">
-        <v>194000</v>
+        <v>173100</v>
       </c>
       <c r="G41" s="3">
-        <v>185600</v>
+        <v>201300</v>
       </c>
       <c r="H41" s="3">
-        <v>67300</v>
+        <v>192600</v>
       </c>
       <c r="I41" s="3">
-        <v>108500</v>
+        <v>69800</v>
       </c>
       <c r="J41" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K41" s="3">
         <v>197400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>145700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2190,47 +2277,50 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>53800</v>
+        <v>66300</v>
       </c>
       <c r="E42" s="3">
-        <v>62200</v>
+        <v>55800</v>
       </c>
       <c r="F42" s="3">
-        <v>63600</v>
+        <v>64500</v>
       </c>
       <c r="G42" s="3">
-        <v>95700</v>
+        <v>66000</v>
       </c>
       <c r="H42" s="3">
-        <v>81800</v>
+        <v>99300</v>
       </c>
       <c r="I42" s="3">
-        <v>104700</v>
+        <v>84900</v>
       </c>
       <c r="J42" s="3">
+        <v>108700</v>
+      </c>
+      <c r="K42" s="3">
         <v>114200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>77100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>119900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>61400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2240,16 +2330,19 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2700</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
@@ -2263,8 +2356,8 @@
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2273,14 +2366,14 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,47 +2436,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>108600</v>
+        <v>124500</v>
       </c>
       <c r="E45" s="3">
-        <v>60000</v>
+        <v>112700</v>
       </c>
       <c r="F45" s="3">
-        <v>81000</v>
+        <v>62300</v>
       </c>
       <c r="G45" s="3">
-        <v>113600</v>
+        <v>84100</v>
       </c>
       <c r="H45" s="3">
-        <v>73900</v>
+        <v>117900</v>
       </c>
       <c r="I45" s="3">
-        <v>58200</v>
+        <v>76700</v>
       </c>
       <c r="J45" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K45" s="3">
         <v>35400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>299200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2390,47 +2489,50 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>320000</v>
+        <v>385300</v>
       </c>
       <c r="E46" s="3">
-        <v>288900</v>
+        <v>332000</v>
       </c>
       <c r="F46" s="3">
-        <v>338700</v>
+        <v>299800</v>
       </c>
       <c r="G46" s="3">
-        <v>394900</v>
+        <v>351400</v>
       </c>
       <c r="H46" s="3">
-        <v>223000</v>
+        <v>409800</v>
       </c>
       <c r="I46" s="3">
-        <v>271500</v>
+        <v>231400</v>
       </c>
       <c r="J46" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K46" s="3">
         <v>347000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>370000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>185000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>544900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>238900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2440,47 +2542,50 @@
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>191700</v>
+        <v>161600</v>
       </c>
       <c r="E47" s="3">
-        <v>220700</v>
+        <v>198900</v>
       </c>
       <c r="F47" s="3">
-        <v>210800</v>
+        <v>229000</v>
       </c>
       <c r="G47" s="3">
-        <v>191600</v>
+        <v>218800</v>
       </c>
       <c r="H47" s="3">
-        <v>188800</v>
+        <v>198800</v>
       </c>
       <c r="I47" s="3">
-        <v>166300</v>
+        <v>195900</v>
       </c>
       <c r="J47" s="3">
+        <v>172500</v>
+      </c>
+      <c r="K47" s="3">
         <v>70100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2490,47 +2595,50 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>327000</v>
+        <v>310500</v>
       </c>
       <c r="E48" s="3">
-        <v>347600</v>
+        <v>339400</v>
       </c>
       <c r="F48" s="3">
-        <v>79500</v>
+        <v>360700</v>
       </c>
       <c r="G48" s="3">
-        <v>78200</v>
+        <v>82500</v>
       </c>
       <c r="H48" s="3">
-        <v>76700</v>
+        <v>81100</v>
       </c>
       <c r="I48" s="3">
-        <v>69400</v>
+        <v>79600</v>
       </c>
       <c r="J48" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K48" s="3">
         <v>63000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2540,47 +2648,50 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>185300</v>
+        <v>188000</v>
       </c>
       <c r="E49" s="3">
-        <v>136300</v>
+        <v>192300</v>
       </c>
       <c r="F49" s="3">
-        <v>137700</v>
+        <v>141400</v>
       </c>
       <c r="G49" s="3">
-        <v>128200</v>
+        <v>142900</v>
       </c>
       <c r="H49" s="3">
-        <v>120700</v>
+        <v>133100</v>
       </c>
       <c r="I49" s="3">
-        <v>114500</v>
+        <v>125200</v>
       </c>
       <c r="J49" s="3">
+        <v>118800</v>
+      </c>
+      <c r="K49" s="3">
         <v>67800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>68000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,47 +2807,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62100</v>
+        <v>69500</v>
       </c>
       <c r="E52" s="3">
-        <v>90100</v>
+        <v>64400</v>
       </c>
       <c r="F52" s="3">
-        <v>83100</v>
+        <v>93500</v>
       </c>
       <c r="G52" s="3">
-        <v>57300</v>
+        <v>86200</v>
       </c>
       <c r="H52" s="3">
-        <v>32800</v>
+        <v>59500</v>
       </c>
       <c r="I52" s="3">
-        <v>30300</v>
+        <v>34000</v>
       </c>
       <c r="J52" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K52" s="3">
         <v>40400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1086100</v>
+        <v>1115000</v>
       </c>
       <c r="E54" s="3">
-        <v>1083700</v>
+        <v>1127000</v>
       </c>
       <c r="F54" s="3">
-        <v>849800</v>
+        <v>1124500</v>
       </c>
       <c r="G54" s="3">
-        <v>850200</v>
+        <v>881800</v>
       </c>
       <c r="H54" s="3">
-        <v>641900</v>
+        <v>882200</v>
       </c>
       <c r="I54" s="3">
-        <v>651800</v>
+        <v>666100</v>
       </c>
       <c r="J54" s="3">
+        <v>676400</v>
+      </c>
+      <c r="K54" s="3">
         <v>588200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>574100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>352400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>657100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>344000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2891,11 +3022,11 @@
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
@@ -2903,24 +3034,24 @@
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2930,47 +3061,50 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>62400</v>
+        <v>148100</v>
       </c>
       <c r="E58" s="3">
-        <v>55900</v>
+        <v>64700</v>
       </c>
       <c r="F58" s="3">
-        <v>45000</v>
+        <v>58000</v>
       </c>
       <c r="G58" s="3">
-        <v>52000</v>
+        <v>46700</v>
       </c>
       <c r="H58" s="3">
-        <v>33200</v>
+        <v>54000</v>
       </c>
       <c r="I58" s="3">
-        <v>13300</v>
+        <v>34500</v>
       </c>
       <c r="J58" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K58" s="3">
         <v>6300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7900</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2980,47 +3114,50 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>517300</v>
+        <v>526700</v>
       </c>
       <c r="E59" s="3">
-        <v>516800</v>
+        <v>536800</v>
       </c>
       <c r="F59" s="3">
-        <v>424300</v>
+        <v>536300</v>
       </c>
       <c r="G59" s="3">
-        <v>428900</v>
+        <v>440300</v>
       </c>
       <c r="H59" s="3">
-        <v>382900</v>
+        <v>445100</v>
       </c>
       <c r="I59" s="3">
-        <v>411700</v>
+        <v>397300</v>
       </c>
       <c r="J59" s="3">
+        <v>427200</v>
+      </c>
+      <c r="K59" s="3">
         <v>363700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>375700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>328100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>719900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>293200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3030,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>579700</v>
+        <v>674800</v>
       </c>
       <c r="E60" s="3">
-        <v>572800</v>
+        <v>601500</v>
       </c>
       <c r="F60" s="3">
-        <v>474500</v>
+        <v>594300</v>
       </c>
       <c r="G60" s="3">
-        <v>480900</v>
+        <v>492400</v>
       </c>
       <c r="H60" s="3">
-        <v>416100</v>
+        <v>499100</v>
       </c>
       <c r="I60" s="3">
-        <v>425000</v>
+        <v>431800</v>
       </c>
       <c r="J60" s="3">
+        <v>441000</v>
+      </c>
+      <c r="K60" s="3">
         <v>372500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>382200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>336000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>721400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>295100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3080,40 +3220,43 @@
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>187200</v>
+        <v>189400</v>
       </c>
       <c r="E61" s="3">
-        <v>172400</v>
+        <v>194200</v>
       </c>
       <c r="F61" s="3">
-        <v>188400</v>
+        <v>178900</v>
       </c>
       <c r="G61" s="3">
-        <v>187000</v>
+        <v>195400</v>
       </c>
       <c r="H61" s="3">
-        <v>47200</v>
+        <v>194000</v>
       </c>
       <c r="I61" s="3">
+        <v>49000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K61" s="3">
         <v>56700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>56700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>58100</v>
       </c>
       <c r="L61" s="3">
         <v>58100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>58100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3130,47 +3273,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>175800</v>
+        <v>168700</v>
       </c>
       <c r="E62" s="3">
-        <v>189800</v>
+        <v>182400</v>
       </c>
       <c r="F62" s="3">
-        <v>24900</v>
+        <v>196900</v>
       </c>
       <c r="G62" s="3">
-        <v>19500</v>
+        <v>25800</v>
       </c>
       <c r="H62" s="3">
-        <v>20500</v>
+        <v>20200</v>
       </c>
       <c r="I62" s="3">
-        <v>8000</v>
+        <v>21300</v>
       </c>
       <c r="J62" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K62" s="3">
         <v>5800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>947500</v>
+        <v>1037900</v>
       </c>
       <c r="E66" s="3">
-        <v>941700</v>
+        <v>983200</v>
       </c>
       <c r="F66" s="3">
-        <v>696900</v>
+        <v>977200</v>
       </c>
       <c r="G66" s="3">
-        <v>704600</v>
+        <v>723100</v>
       </c>
       <c r="H66" s="3">
-        <v>502200</v>
+        <v>731100</v>
       </c>
       <c r="I66" s="3">
-        <v>509900</v>
+        <v>521100</v>
       </c>
       <c r="J66" s="3">
+        <v>529100</v>
+      </c>
+      <c r="K66" s="3">
         <v>444800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>453800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>406700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>726200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>301200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3530,17 +3698,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>613000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>604300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>259700</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,47 +3771,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-615700</v>
+        <v>-704900</v>
       </c>
       <c r="E72" s="3">
-        <v>-613400</v>
+        <v>-638900</v>
       </c>
       <c r="F72" s="3">
-        <v>-600900</v>
+        <v>-636500</v>
       </c>
       <c r="G72" s="3">
-        <v>-613100</v>
+        <v>-623500</v>
       </c>
       <c r="H72" s="3">
-        <v>-628400</v>
+        <v>-636200</v>
       </c>
       <c r="I72" s="3">
-        <v>-637500</v>
+        <v>-652100</v>
       </c>
       <c r="J72" s="3">
+        <v>-661500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-634100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-662100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-670500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-674500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-232000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,47 +3983,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>138600</v>
+        <v>77100</v>
       </c>
       <c r="E76" s="3">
-        <v>142000</v>
+        <v>143800</v>
       </c>
       <c r="F76" s="3">
-        <v>152900</v>
+        <v>147300</v>
       </c>
       <c r="G76" s="3">
-        <v>145600</v>
+        <v>158600</v>
       </c>
       <c r="H76" s="3">
-        <v>139700</v>
+        <v>151100</v>
       </c>
       <c r="I76" s="3">
-        <v>142000</v>
+        <v>145000</v>
       </c>
       <c r="J76" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K76" s="3">
         <v>143400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-667300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-673400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-217000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-65900</v>
       </c>
       <c r="E81" s="3">
-        <v>-12600</v>
+        <v>-2400</v>
       </c>
       <c r="F81" s="3">
-        <v>12200</v>
+        <v>-13100</v>
       </c>
       <c r="G81" s="3">
-        <v>15300</v>
+        <v>12700</v>
       </c>
       <c r="H81" s="3">
-        <v>9100</v>
+        <v>15900</v>
       </c>
       <c r="I81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-109200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4051,18 +4250,18 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4351,18 +4568,18 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>42300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4421,18 +4642,18 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4571,18 +4801,18 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-66700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4841,18 +5087,18 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4941,18 +5193,18 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>-23900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>ONE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>108200</v>
+        <v>153800</v>
       </c>
       <c r="E8" s="3">
-        <v>128600</v>
+        <v>113300</v>
       </c>
       <c r="F8" s="3">
-        <v>115800</v>
+        <v>134700</v>
       </c>
       <c r="G8" s="3">
-        <v>190400</v>
+        <v>121300</v>
       </c>
       <c r="H8" s="3">
-        <v>158800</v>
+        <v>199400</v>
       </c>
       <c r="I8" s="3">
-        <v>136900</v>
+        <v>166300</v>
       </c>
       <c r="J8" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K8" s="3">
         <v>94000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>130700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>118300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>95200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>88900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>47500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>70100</v>
+        <v>97500</v>
       </c>
       <c r="E9" s="3">
-        <v>76900</v>
+        <v>73400</v>
       </c>
       <c r="F9" s="3">
+        <v>80500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>78600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>101500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>82500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>56100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>64600</v>
+      </c>
+      <c r="M9" s="3">
+        <v>52800</v>
+      </c>
+      <c r="N9" s="3">
+        <v>47500</v>
+      </c>
+      <c r="O9" s="3">
         <v>75000</v>
       </c>
-      <c r="G9" s="3">
-        <v>96900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>78800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>69100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>56100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>64600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>52800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>47500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>75000</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>26300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38100</v>
+        <v>56300</v>
       </c>
       <c r="E10" s="3">
-        <v>51800</v>
+        <v>39900</v>
       </c>
       <c r="F10" s="3">
-        <v>40800</v>
+        <v>54200</v>
       </c>
       <c r="G10" s="3">
-        <v>93500</v>
+        <v>42700</v>
       </c>
       <c r="H10" s="3">
-        <v>80000</v>
+        <v>98000</v>
       </c>
       <c r="I10" s="3">
-        <v>67800</v>
+        <v>83800</v>
       </c>
       <c r="J10" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K10" s="3">
         <v>37800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>65500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-9500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>48000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>49500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>119400</v>
+        <v>174600</v>
       </c>
       <c r="E17" s="3">
-        <v>136600</v>
+        <v>125100</v>
       </c>
       <c r="F17" s="3">
-        <v>132400</v>
+        <v>143100</v>
       </c>
       <c r="G17" s="3">
-        <v>179300</v>
+        <v>138700</v>
       </c>
       <c r="H17" s="3">
-        <v>140900</v>
+        <v>187800</v>
       </c>
       <c r="I17" s="3">
-        <v>123800</v>
+        <v>147600</v>
       </c>
       <c r="J17" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K17" s="3">
         <v>102800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>110200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>84000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>65800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>46800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11200</v>
+        <v>-20800</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
+        <v>-11800</v>
       </c>
       <c r="F18" s="3">
-        <v>-16700</v>
+        <v>-8300</v>
       </c>
       <c r="G18" s="3">
-        <v>11100</v>
+        <v>-17400</v>
       </c>
       <c r="H18" s="3">
-        <v>17900</v>
+        <v>11600</v>
       </c>
       <c r="I18" s="3">
-        <v>13100</v>
+        <v>18700</v>
       </c>
       <c r="J18" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-50000</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>4500</v>
+        <v>-52300</v>
       </c>
       <c r="F20" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>9700</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>7100</v>
+        <v>10200</v>
       </c>
       <c r="I20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1367,62 +1404,65 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>7300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>3700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="G22" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I22" s="3">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="J22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1432,120 +1472,129 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-65400</v>
+        <v>-27600</v>
       </c>
       <c r="E23" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>21700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>12600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
-        <v>6400</v>
-      </c>
       <c r="H24" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I24" s="3">
-        <v>4000</v>
+        <v>7200</v>
       </c>
       <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-65000</v>
+        <v>-25900</v>
       </c>
       <c r="E26" s="3">
-        <v>-3200</v>
+        <v>-68100</v>
       </c>
       <c r="F26" s="3">
-        <v>-15400</v>
+        <v>-3300</v>
       </c>
       <c r="G26" s="3">
-        <v>11400</v>
+        <v>-16100</v>
       </c>
       <c r="H26" s="3">
-        <v>14900</v>
+        <v>12000</v>
       </c>
       <c r="I26" s="3">
-        <v>8500</v>
+        <v>15600</v>
       </c>
       <c r="J26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-65900</v>
+        <v>-25000</v>
       </c>
       <c r="E27" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-109200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>50000</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-4500</v>
+        <v>52300</v>
       </c>
       <c r="F32" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>-9700</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>-7100</v>
+        <v>-10200</v>
       </c>
       <c r="I32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-65900</v>
+        <v>-25000</v>
       </c>
       <c r="E33" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-109200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-65900</v>
+        <v>-25000</v>
       </c>
       <c r="E35" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-109200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>191700</v>
+        <v>177800</v>
       </c>
       <c r="E41" s="3">
-        <v>160800</v>
+        <v>200800</v>
       </c>
       <c r="F41" s="3">
-        <v>173100</v>
+        <v>168400</v>
       </c>
       <c r="G41" s="3">
-        <v>201300</v>
+        <v>181300</v>
       </c>
       <c r="H41" s="3">
-        <v>192600</v>
+        <v>210900</v>
       </c>
       <c r="I41" s="3">
-        <v>69800</v>
+        <v>201700</v>
       </c>
       <c r="J41" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K41" s="3">
         <v>112600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>217100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>145700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,50 +2367,53 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66300</v>
+        <v>72400</v>
       </c>
       <c r="E42" s="3">
-        <v>55800</v>
+        <v>69400</v>
       </c>
       <c r="F42" s="3">
-        <v>64500</v>
+        <v>58500</v>
       </c>
       <c r="G42" s="3">
-        <v>66000</v>
+        <v>67600</v>
       </c>
       <c r="H42" s="3">
-        <v>99300</v>
+        <v>69100</v>
       </c>
       <c r="I42" s="3">
-        <v>84900</v>
+        <v>104000</v>
       </c>
       <c r="J42" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K42" s="3">
         <v>108700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>120700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>77100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>119900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2333,19 +2423,22 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+        <v>3000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -2359,8 +2452,8 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2369,14 +2462,14 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>124500</v>
+        <v>80900</v>
       </c>
       <c r="E45" s="3">
-        <v>112700</v>
+        <v>130400</v>
       </c>
       <c r="F45" s="3">
-        <v>62300</v>
+        <v>118000</v>
       </c>
       <c r="G45" s="3">
-        <v>84100</v>
+        <v>65200</v>
       </c>
       <c r="H45" s="3">
-        <v>117900</v>
+        <v>88000</v>
       </c>
       <c r="I45" s="3">
-        <v>76700</v>
+        <v>123500</v>
       </c>
       <c r="J45" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K45" s="3">
         <v>60400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>299200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>385300</v>
+        <v>331200</v>
       </c>
       <c r="E46" s="3">
-        <v>332000</v>
+        <v>403600</v>
       </c>
       <c r="F46" s="3">
-        <v>299800</v>
+        <v>347800</v>
       </c>
       <c r="G46" s="3">
-        <v>351400</v>
+        <v>314100</v>
       </c>
       <c r="H46" s="3">
-        <v>409800</v>
+        <v>368100</v>
       </c>
       <c r="I46" s="3">
-        <v>231400</v>
+        <v>429200</v>
       </c>
       <c r="J46" s="3">
+        <v>242300</v>
+      </c>
+      <c r="K46" s="3">
         <v>281700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>347000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>370000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>185000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>544900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>238900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2545,50 +2647,53 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161600</v>
+        <v>162600</v>
       </c>
       <c r="E47" s="3">
-        <v>198900</v>
+        <v>169300</v>
       </c>
       <c r="F47" s="3">
-        <v>229000</v>
+        <v>208300</v>
       </c>
       <c r="G47" s="3">
-        <v>218800</v>
+        <v>239900</v>
       </c>
       <c r="H47" s="3">
-        <v>198800</v>
+        <v>229200</v>
       </c>
       <c r="I47" s="3">
-        <v>195900</v>
+        <v>208200</v>
       </c>
       <c r="J47" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K47" s="3">
         <v>172500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>70100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>310500</v>
+        <v>313700</v>
       </c>
       <c r="E48" s="3">
-        <v>339400</v>
+        <v>325200</v>
       </c>
       <c r="F48" s="3">
-        <v>360700</v>
+        <v>355500</v>
       </c>
       <c r="G48" s="3">
-        <v>82500</v>
+        <v>377800</v>
       </c>
       <c r="H48" s="3">
-        <v>81100</v>
+        <v>86400</v>
       </c>
       <c r="I48" s="3">
-        <v>79600</v>
+        <v>85000</v>
       </c>
       <c r="J48" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K48" s="3">
         <v>72000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2651,50 +2759,53 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>188000</v>
+        <v>262300</v>
       </c>
       <c r="E49" s="3">
-        <v>192300</v>
+        <v>197000</v>
       </c>
       <c r="F49" s="3">
-        <v>141400</v>
+        <v>201500</v>
       </c>
       <c r="G49" s="3">
-        <v>142900</v>
+        <v>148100</v>
       </c>
       <c r="H49" s="3">
-        <v>133100</v>
+        <v>149600</v>
       </c>
       <c r="I49" s="3">
-        <v>125200</v>
+        <v>139400</v>
       </c>
       <c r="J49" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K49" s="3">
         <v>118800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>67800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>68000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69500</v>
+        <v>126400</v>
       </c>
       <c r="E52" s="3">
-        <v>64400</v>
+        <v>72800</v>
       </c>
       <c r="F52" s="3">
-        <v>93500</v>
+        <v>67500</v>
       </c>
       <c r="G52" s="3">
-        <v>86200</v>
+        <v>98000</v>
       </c>
       <c r="H52" s="3">
-        <v>59500</v>
+        <v>90300</v>
       </c>
       <c r="I52" s="3">
-        <v>34000</v>
+        <v>62300</v>
       </c>
       <c r="J52" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K52" s="3">
         <v>31400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>40400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1115000</v>
+        <v>1196200</v>
       </c>
       <c r="E54" s="3">
-        <v>1127000</v>
+        <v>1167900</v>
       </c>
       <c r="F54" s="3">
-        <v>1124500</v>
+        <v>1180500</v>
       </c>
       <c r="G54" s="3">
-        <v>881800</v>
+        <v>1177900</v>
       </c>
       <c r="H54" s="3">
-        <v>882200</v>
+        <v>923600</v>
       </c>
       <c r="I54" s="3">
-        <v>666100</v>
+        <v>924100</v>
       </c>
       <c r="J54" s="3">
+        <v>697700</v>
+      </c>
+      <c r="K54" s="3">
         <v>676400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>588200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>574100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>352400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>657100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>344000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3025,11 +3156,11 @@
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -3037,24 +3168,24 @@
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>148100</v>
+        <v>165000</v>
       </c>
       <c r="E58" s="3">
-        <v>64700</v>
+        <v>155100</v>
       </c>
       <c r="F58" s="3">
-        <v>58000</v>
+        <v>67800</v>
       </c>
       <c r="G58" s="3">
-        <v>46700</v>
+        <v>60800</v>
       </c>
       <c r="H58" s="3">
-        <v>54000</v>
+        <v>48900</v>
       </c>
       <c r="I58" s="3">
-        <v>34500</v>
+        <v>56500</v>
       </c>
       <c r="J58" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K58" s="3">
         <v>13800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>526700</v>
+        <v>604300</v>
       </c>
       <c r="E59" s="3">
-        <v>536800</v>
+        <v>551700</v>
       </c>
       <c r="F59" s="3">
-        <v>536300</v>
+        <v>562300</v>
       </c>
       <c r="G59" s="3">
-        <v>440300</v>
+        <v>561700</v>
       </c>
       <c r="H59" s="3">
-        <v>445100</v>
+        <v>461200</v>
       </c>
       <c r="I59" s="3">
-        <v>397300</v>
+        <v>466200</v>
       </c>
       <c r="J59" s="3">
+        <v>416200</v>
+      </c>
+      <c r="K59" s="3">
         <v>427200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>363700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>375700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>328100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>719900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>293200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>674800</v>
+        <v>769300</v>
       </c>
       <c r="E60" s="3">
-        <v>601500</v>
+        <v>706800</v>
       </c>
       <c r="F60" s="3">
-        <v>594300</v>
+        <v>630100</v>
       </c>
       <c r="G60" s="3">
-        <v>492400</v>
+        <v>622500</v>
       </c>
       <c r="H60" s="3">
-        <v>499100</v>
+        <v>515700</v>
       </c>
       <c r="I60" s="3">
-        <v>431800</v>
+        <v>522700</v>
       </c>
       <c r="J60" s="3">
+        <v>452300</v>
+      </c>
+      <c r="K60" s="3">
         <v>441000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>372500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>382200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>336000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>721400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>295100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3223,43 +3363,46 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>189400</v>
+        <v>192100</v>
       </c>
       <c r="E61" s="3">
-        <v>194200</v>
+        <v>198400</v>
       </c>
       <c r="F61" s="3">
-        <v>178900</v>
+        <v>203400</v>
       </c>
       <c r="G61" s="3">
-        <v>195400</v>
+        <v>187400</v>
       </c>
       <c r="H61" s="3">
-        <v>194000</v>
+        <v>204700</v>
       </c>
       <c r="I61" s="3">
-        <v>49000</v>
+        <v>203200</v>
       </c>
       <c r="J61" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K61" s="3">
         <v>58800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>56700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>58100</v>
       </c>
       <c r="M61" s="3">
         <v>58100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>58100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3276,50 +3419,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>168700</v>
+        <v>171900</v>
       </c>
       <c r="E62" s="3">
-        <v>182400</v>
+        <v>176700</v>
       </c>
       <c r="F62" s="3">
-        <v>196900</v>
+        <v>191100</v>
       </c>
       <c r="G62" s="3">
-        <v>25800</v>
+        <v>206200</v>
       </c>
       <c r="H62" s="3">
-        <v>20200</v>
+        <v>27100</v>
       </c>
       <c r="I62" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="J62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K62" s="3">
         <v>8300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1037900</v>
+        <v>1135200</v>
       </c>
       <c r="E66" s="3">
-        <v>983200</v>
+        <v>1087200</v>
       </c>
       <c r="F66" s="3">
-        <v>977200</v>
+        <v>1029900</v>
       </c>
       <c r="G66" s="3">
-        <v>723100</v>
+        <v>1023500</v>
       </c>
       <c r="H66" s="3">
-        <v>731100</v>
+        <v>757400</v>
       </c>
       <c r="I66" s="3">
-        <v>521100</v>
+        <v>765800</v>
       </c>
       <c r="J66" s="3">
+        <v>545900</v>
+      </c>
+      <c r="K66" s="3">
         <v>529100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>444800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>453800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>406700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>726200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>301200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,17 +3869,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>613000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>604300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>259700</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-704900</v>
+        <v>-763300</v>
       </c>
       <c r="E72" s="3">
-        <v>-638900</v>
+        <v>-738300</v>
       </c>
       <c r="F72" s="3">
-        <v>-636500</v>
+        <v>-669200</v>
       </c>
       <c r="G72" s="3">
-        <v>-623500</v>
+        <v>-666700</v>
       </c>
       <c r="H72" s="3">
-        <v>-636200</v>
+        <v>-653100</v>
       </c>
       <c r="I72" s="3">
-        <v>-652100</v>
+        <v>-666300</v>
       </c>
       <c r="J72" s="3">
+        <v>-683000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-661500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-634100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-662100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-670500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-674500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-232000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77100</v>
+        <v>60900</v>
       </c>
       <c r="E76" s="3">
-        <v>143800</v>
+        <v>80700</v>
       </c>
       <c r="F76" s="3">
+        <v>150600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>154300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>166200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>158200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>151800</v>
+      </c>
+      <c r="K76" s="3">
         <v>147300</v>
       </c>
-      <c r="G76" s="3">
-        <v>158600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>151100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>145000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>147300</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>143400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>120400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-667300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-673400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-217000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-65900</v>
+        <v>-25000</v>
       </c>
       <c r="E81" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-109200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4253,18 +4452,18 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4571,18 +4788,18 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>42300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4645,18 +4866,18 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4804,18 +5034,18 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-66700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5090,18 +5336,18 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5196,18 +5448,18 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>-23900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>8</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>ONE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>153800</v>
+        <v>104600</v>
       </c>
       <c r="E8" s="3">
-        <v>113300</v>
+        <v>154500</v>
       </c>
       <c r="F8" s="3">
-        <v>134700</v>
+        <v>113800</v>
       </c>
       <c r="G8" s="3">
-        <v>121300</v>
+        <v>135300</v>
       </c>
       <c r="H8" s="3">
-        <v>199400</v>
+        <v>121800</v>
       </c>
       <c r="I8" s="3">
-        <v>166300</v>
+        <v>200300</v>
       </c>
       <c r="J8" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K8" s="3">
         <v>143400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>118300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>94500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>47500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>97500</v>
+        <v>72800</v>
       </c>
       <c r="E9" s="3">
-        <v>73400</v>
+        <v>98000</v>
       </c>
       <c r="F9" s="3">
-        <v>80500</v>
+        <v>73700</v>
       </c>
       <c r="G9" s="3">
-        <v>78600</v>
+        <v>80900</v>
       </c>
       <c r="H9" s="3">
-        <v>101500</v>
+        <v>78900</v>
       </c>
       <c r="I9" s="3">
-        <v>82500</v>
+        <v>101900</v>
       </c>
       <c r="J9" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K9" s="3">
         <v>72400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>39400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>26300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>56300</v>
+        <v>31800</v>
       </c>
       <c r="E10" s="3">
-        <v>39900</v>
+        <v>56500</v>
       </c>
       <c r="F10" s="3">
-        <v>54200</v>
+        <v>40100</v>
       </c>
       <c r="G10" s="3">
-        <v>42700</v>
+        <v>54500</v>
       </c>
       <c r="H10" s="3">
-        <v>98000</v>
+        <v>42900</v>
       </c>
       <c r="I10" s="3">
-        <v>83800</v>
+        <v>98400</v>
       </c>
       <c r="J10" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K10" s="3">
         <v>71000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>66100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>65500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-9500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>48000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>49500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>174600</v>
+        <v>129600</v>
       </c>
       <c r="E17" s="3">
-        <v>125100</v>
+        <v>172100</v>
       </c>
       <c r="F17" s="3">
-        <v>143100</v>
+        <v>125600</v>
       </c>
       <c r="G17" s="3">
-        <v>138700</v>
+        <v>143700</v>
       </c>
       <c r="H17" s="3">
-        <v>187800</v>
+        <v>139300</v>
       </c>
       <c r="I17" s="3">
-        <v>147600</v>
+        <v>188600</v>
       </c>
       <c r="J17" s="3">
+        <v>148200</v>
+      </c>
+      <c r="K17" s="3">
         <v>129600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>110200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>84000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>65800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>46800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20800</v>
+        <v>-25000</v>
       </c>
       <c r="E18" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-8300</v>
-      </c>
       <c r="G18" s="3">
-        <v>-17400</v>
+        <v>-8400</v>
       </c>
       <c r="H18" s="3">
-        <v>11600</v>
+        <v>-17500</v>
       </c>
       <c r="I18" s="3">
-        <v>18700</v>
+        <v>11700</v>
       </c>
       <c r="J18" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K18" s="3">
         <v>13700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>2400</v>
       </c>
       <c r="E20" s="3">
-        <v>-52300</v>
+        <v>-6100</v>
       </c>
       <c r="F20" s="3">
-        <v>4700</v>
+        <v>-52600</v>
       </c>
       <c r="G20" s="3">
         <v>4700</v>
       </c>
       <c r="H20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I20" s="3">
         <v>10200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,65 +1443,68 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>7300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>3700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
-        <v>4300</v>
-      </c>
       <c r="F22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1475,126 +1514,135 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27600</v>
+        <v>-26600</v>
       </c>
       <c r="E23" s="3">
-        <v>-68500</v>
+        <v>-28400</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>-68800</v>
       </c>
       <c r="G23" s="3">
-        <v>-16600</v>
+        <v>-6600</v>
       </c>
       <c r="H23" s="3">
-        <v>18700</v>
+        <v>-16700</v>
       </c>
       <c r="I23" s="3">
-        <v>22700</v>
+        <v>18800</v>
       </c>
       <c r="J23" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K23" s="3">
         <v>13200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25900</v>
+        <v>-24700</v>
       </c>
       <c r="E26" s="3">
-        <v>-68100</v>
+        <v>-26800</v>
       </c>
       <c r="F26" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-16100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25000</v>
+        <v>-24400</v>
       </c>
       <c r="E27" s="3">
-        <v>-69100</v>
+        <v>-25900</v>
       </c>
       <c r="F27" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-109200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>-2400</v>
       </c>
       <c r="E32" s="3">
-        <v>52300</v>
+        <v>6100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4700</v>
+        <v>52600</v>
       </c>
       <c r="G32" s="3">
         <v>-4700</v>
       </c>
       <c r="H32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-10200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25000</v>
+        <v>-24400</v>
       </c>
       <c r="E33" s="3">
-        <v>-69100</v>
+        <v>-25900</v>
       </c>
       <c r="F33" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-109200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25000</v>
+        <v>-24400</v>
       </c>
       <c r="E35" s="3">
-        <v>-69100</v>
+        <v>-25900</v>
       </c>
       <c r="F35" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-109200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>177800</v>
+        <v>122600</v>
       </c>
       <c r="E41" s="3">
-        <v>200800</v>
+        <v>176900</v>
       </c>
       <c r="F41" s="3">
-        <v>168400</v>
+        <v>201700</v>
       </c>
       <c r="G41" s="3">
-        <v>181300</v>
+        <v>169200</v>
       </c>
       <c r="H41" s="3">
-        <v>210900</v>
+        <v>182100</v>
       </c>
       <c r="I41" s="3">
-        <v>201700</v>
+        <v>211800</v>
       </c>
       <c r="J41" s="3">
+        <v>202600</v>
+      </c>
+      <c r="K41" s="3">
         <v>73100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>217100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>82800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>145700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,53 +2456,56 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>72400</v>
+        <v>70900</v>
       </c>
       <c r="E42" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>69700</v>
+      </c>
+      <c r="G42" s="3">
+        <v>58700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>67900</v>
+      </c>
+      <c r="I42" s="3">
         <v>69400</v>
       </c>
-      <c r="F42" s="3">
-        <v>58500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>67600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>69100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>104000</v>
-      </c>
       <c r="J42" s="3">
+        <v>104400</v>
+      </c>
+      <c r="K42" s="3">
         <v>88900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>108700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>120700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>77100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>119900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>61400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2426,23 +2515,26 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2455,8 +2547,8 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2465,14 +2557,14 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>4000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2633,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>80900</v>
+        <v>108700</v>
       </c>
       <c r="E45" s="3">
-        <v>130400</v>
+        <v>81300</v>
       </c>
       <c r="F45" s="3">
-        <v>118000</v>
+        <v>131000</v>
       </c>
       <c r="G45" s="3">
-        <v>65200</v>
+        <v>118500</v>
       </c>
       <c r="H45" s="3">
-        <v>88000</v>
+        <v>65500</v>
       </c>
       <c r="I45" s="3">
-        <v>123500</v>
+        <v>88400</v>
       </c>
       <c r="J45" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K45" s="3">
         <v>80300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>299200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>331200</v>
+        <v>303700</v>
       </c>
       <c r="E46" s="3">
-        <v>403600</v>
+        <v>332700</v>
       </c>
       <c r="F46" s="3">
-        <v>347800</v>
+        <v>405400</v>
       </c>
       <c r="G46" s="3">
-        <v>314100</v>
+        <v>349300</v>
       </c>
       <c r="H46" s="3">
-        <v>368100</v>
+        <v>315400</v>
       </c>
       <c r="I46" s="3">
-        <v>429200</v>
+        <v>369700</v>
       </c>
       <c r="J46" s="3">
+        <v>431100</v>
+      </c>
+      <c r="K46" s="3">
         <v>242300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>281700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>347000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>370000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>185000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>544900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>238900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,53 +2751,56 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>162600</v>
+        <v>164600</v>
       </c>
       <c r="E47" s="3">
-        <v>169300</v>
+        <v>163300</v>
       </c>
       <c r="F47" s="3">
-        <v>208300</v>
+        <v>170000</v>
       </c>
       <c r="G47" s="3">
-        <v>239900</v>
+        <v>209200</v>
       </c>
       <c r="H47" s="3">
-        <v>229200</v>
+        <v>240900</v>
       </c>
       <c r="I47" s="3">
-        <v>208200</v>
+        <v>230100</v>
       </c>
       <c r="J47" s="3">
+        <v>209200</v>
+      </c>
+      <c r="K47" s="3">
         <v>205200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>172500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2706,53 +2810,56 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>313700</v>
+        <v>311800</v>
       </c>
       <c r="E48" s="3">
-        <v>325200</v>
+        <v>315100</v>
       </c>
       <c r="F48" s="3">
-        <v>355500</v>
+        <v>326600</v>
       </c>
       <c r="G48" s="3">
-        <v>377800</v>
+        <v>357000</v>
       </c>
       <c r="H48" s="3">
-        <v>86400</v>
+        <v>379500</v>
       </c>
       <c r="I48" s="3">
-        <v>85000</v>
+        <v>86800</v>
       </c>
       <c r="J48" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K48" s="3">
         <v>83400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,53 +2869,56 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>262300</v>
+        <v>264600</v>
       </c>
       <c r="E49" s="3">
-        <v>197000</v>
+        <v>268800</v>
       </c>
       <c r="F49" s="3">
-        <v>201500</v>
+        <v>197800</v>
       </c>
       <c r="G49" s="3">
-        <v>148100</v>
+        <v>202300</v>
       </c>
       <c r="H49" s="3">
-        <v>149600</v>
+        <v>148800</v>
       </c>
       <c r="I49" s="3">
-        <v>139400</v>
+        <v>150300</v>
       </c>
       <c r="J49" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K49" s="3">
         <v>131200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>118800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>67800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>68000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>54200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>126400</v>
+        <v>128000</v>
       </c>
       <c r="E52" s="3">
-        <v>72800</v>
+        <v>126900</v>
       </c>
       <c r="F52" s="3">
-        <v>67500</v>
+        <v>73100</v>
       </c>
       <c r="G52" s="3">
-        <v>98000</v>
+        <v>67800</v>
       </c>
       <c r="H52" s="3">
-        <v>90300</v>
+        <v>98400</v>
       </c>
       <c r="I52" s="3">
-        <v>62300</v>
+        <v>90700</v>
       </c>
       <c r="J52" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K52" s="3">
         <v>35600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1196200</v>
+        <v>1172700</v>
       </c>
       <c r="E54" s="3">
-        <v>1167900</v>
+        <v>1206700</v>
       </c>
       <c r="F54" s="3">
-        <v>1180500</v>
+        <v>1173000</v>
       </c>
       <c r="G54" s="3">
-        <v>1177900</v>
+        <v>1185600</v>
       </c>
       <c r="H54" s="3">
-        <v>923600</v>
+        <v>1183000</v>
       </c>
       <c r="I54" s="3">
-        <v>924100</v>
+        <v>927600</v>
       </c>
       <c r="J54" s="3">
+        <v>928100</v>
+      </c>
+      <c r="K54" s="3">
         <v>697700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>676400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>588200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>574100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>352400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>657100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>344000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3159,11 +3289,11 @@
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -3171,24 +3301,24 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,53 +3328,56 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>165000</v>
+        <v>170300</v>
       </c>
       <c r="E58" s="3">
-        <v>155100</v>
+        <v>165800</v>
       </c>
       <c r="F58" s="3">
-        <v>67800</v>
+        <v>155800</v>
       </c>
       <c r="G58" s="3">
-        <v>60800</v>
+        <v>68100</v>
       </c>
       <c r="H58" s="3">
-        <v>48900</v>
+        <v>61000</v>
       </c>
       <c r="I58" s="3">
-        <v>56500</v>
+        <v>49100</v>
       </c>
       <c r="J58" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K58" s="3">
         <v>36100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7900</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3254,53 +3387,56 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>604300</v>
+        <v>634800</v>
       </c>
       <c r="E59" s="3">
-        <v>551700</v>
+        <v>616000</v>
       </c>
       <c r="F59" s="3">
-        <v>562300</v>
+        <v>554100</v>
       </c>
       <c r="G59" s="3">
-        <v>561700</v>
+        <v>564700</v>
       </c>
       <c r="H59" s="3">
-        <v>461200</v>
+        <v>564200</v>
       </c>
       <c r="I59" s="3">
-        <v>466200</v>
+        <v>463200</v>
       </c>
       <c r="J59" s="3">
+        <v>468200</v>
+      </c>
+      <c r="K59" s="3">
         <v>416200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>427200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>363700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>375700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>328100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>719900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>293200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>769300</v>
+        <v>805100</v>
       </c>
       <c r="E60" s="3">
-        <v>706800</v>
+        <v>781700</v>
       </c>
       <c r="F60" s="3">
-        <v>630100</v>
+        <v>709900</v>
       </c>
       <c r="G60" s="3">
-        <v>622500</v>
+        <v>632800</v>
       </c>
       <c r="H60" s="3">
-        <v>515700</v>
+        <v>625200</v>
       </c>
       <c r="I60" s="3">
-        <v>522700</v>
+        <v>518000</v>
       </c>
       <c r="J60" s="3">
+        <v>525000</v>
+      </c>
+      <c r="K60" s="3">
         <v>452300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>441000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>372500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>382200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>336000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>721400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>295100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3366,46 +3505,49 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>192100</v>
+        <v>159600</v>
       </c>
       <c r="E61" s="3">
-        <v>198400</v>
+        <v>192900</v>
       </c>
       <c r="F61" s="3">
-        <v>203400</v>
+        <v>199300</v>
       </c>
       <c r="G61" s="3">
-        <v>187400</v>
+        <v>204300</v>
       </c>
       <c r="H61" s="3">
-        <v>204700</v>
+        <v>188200</v>
       </c>
       <c r="I61" s="3">
-        <v>203200</v>
+        <v>205600</v>
       </c>
       <c r="J61" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K61" s="3">
         <v>51300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>58800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>58100</v>
       </c>
       <c r="N61" s="3">
         <v>58100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>58100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3422,53 +3564,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>171900</v>
+        <v>161200</v>
       </c>
       <c r="E62" s="3">
-        <v>176700</v>
+        <v>164500</v>
       </c>
       <c r="F62" s="3">
-        <v>191100</v>
+        <v>177500</v>
       </c>
       <c r="G62" s="3">
-        <v>206200</v>
+        <v>191900</v>
       </c>
       <c r="H62" s="3">
-        <v>27100</v>
+        <v>207100</v>
       </c>
       <c r="I62" s="3">
-        <v>21100</v>
+        <v>27200</v>
       </c>
       <c r="J62" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K62" s="3">
         <v>22300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1135200</v>
+        <v>1131000</v>
       </c>
       <c r="E66" s="3">
-        <v>1087200</v>
+        <v>1145500</v>
       </c>
       <c r="F66" s="3">
-        <v>1029900</v>
+        <v>1091900</v>
       </c>
       <c r="G66" s="3">
-        <v>1023500</v>
+        <v>1034300</v>
       </c>
       <c r="H66" s="3">
-        <v>757400</v>
+        <v>1028000</v>
       </c>
       <c r="I66" s="3">
-        <v>765800</v>
+        <v>760700</v>
       </c>
       <c r="J66" s="3">
+        <v>769200</v>
+      </c>
+      <c r="K66" s="3">
         <v>545900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>529100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>444800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>453800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>406700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>726200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>301200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,17 +4039,17 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>613000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>604300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>259700</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-763300</v>
+        <v>-787700</v>
       </c>
       <c r="E72" s="3">
-        <v>-738300</v>
+        <v>-767400</v>
       </c>
       <c r="F72" s="3">
+        <v>-741500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-672100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-669600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-655900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-669200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-666700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-653100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-666300</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-683000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-661500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-634100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-662100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-670500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-674500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-232000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60900</v>
+        <v>41700</v>
       </c>
       <c r="E76" s="3">
-        <v>80700</v>
+        <v>61200</v>
       </c>
       <c r="F76" s="3">
-        <v>150600</v>
+        <v>81100</v>
       </c>
       <c r="G76" s="3">
-        <v>154300</v>
+        <v>151300</v>
       </c>
       <c r="H76" s="3">
-        <v>166200</v>
+        <v>155000</v>
       </c>
       <c r="I76" s="3">
-        <v>158200</v>
+        <v>166900</v>
       </c>
       <c r="J76" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K76" s="3">
         <v>151800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>147300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>143400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>120400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-667300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-673400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-217000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25000</v>
+        <v>-24400</v>
       </c>
       <c r="E81" s="3">
-        <v>-69100</v>
+        <v>-25900</v>
       </c>
       <c r="F81" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-109200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4455,18 +4653,18 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,31 +4972,34 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>11100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4791,18 +5007,18 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>42300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4869,18 +5089,18 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,31 +5231,34 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>18600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5037,18 +5266,18 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-66700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,31 +5549,34 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>22400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5339,18 +5584,18 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5451,18 +5702,18 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>-23900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>8</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>ONE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>104600</v>
+        <v>145300</v>
       </c>
       <c r="E8" s="3">
-        <v>154500</v>
+        <v>106800</v>
       </c>
       <c r="F8" s="3">
-        <v>113800</v>
+        <v>157700</v>
       </c>
       <c r="G8" s="3">
-        <v>135300</v>
+        <v>116200</v>
       </c>
       <c r="H8" s="3">
-        <v>121800</v>
+        <v>138200</v>
       </c>
       <c r="I8" s="3">
-        <v>200300</v>
+        <v>124400</v>
       </c>
       <c r="J8" s="3">
+        <v>204500</v>
+      </c>
+      <c r="K8" s="3">
         <v>167000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>143400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>118300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>95200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>88900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>47500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72800</v>
+        <v>84600</v>
       </c>
       <c r="E9" s="3">
-        <v>98000</v>
+        <v>74300</v>
       </c>
       <c r="F9" s="3">
-        <v>73700</v>
+        <v>100000</v>
       </c>
       <c r="G9" s="3">
-        <v>80900</v>
+        <v>75300</v>
       </c>
       <c r="H9" s="3">
-        <v>78900</v>
+        <v>82600</v>
       </c>
       <c r="I9" s="3">
-        <v>101900</v>
+        <v>80600</v>
       </c>
       <c r="J9" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K9" s="3">
         <v>82900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>72400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>46500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>39400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>26300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31800</v>
+        <v>60700</v>
       </c>
       <c r="E10" s="3">
-        <v>56500</v>
+        <v>32500</v>
       </c>
       <c r="F10" s="3">
-        <v>40100</v>
+        <v>57700</v>
       </c>
       <c r="G10" s="3">
-        <v>54500</v>
+        <v>40900</v>
       </c>
       <c r="H10" s="3">
-        <v>42900</v>
+        <v>55600</v>
       </c>
       <c r="I10" s="3">
-        <v>98400</v>
+        <v>43800</v>
       </c>
       <c r="J10" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K10" s="3">
         <v>84200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>65500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>48000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>132300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>175800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>128300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>146700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>142300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>192600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>148200</v>
+      </c>
+      <c r="L17" s="3">
         <v>129600</v>
       </c>
-      <c r="E17" s="3">
-        <v>172100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>125600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>143700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>139300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>188600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>148200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>129600</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>102800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>110200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>84000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>65800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>46800</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25000</v>
+        <v>-17200</v>
       </c>
       <c r="E18" s="3">
-        <v>-17700</v>
+        <v>-25500</v>
       </c>
       <c r="F18" s="3">
-        <v>-11800</v>
+        <v>-18100</v>
       </c>
       <c r="G18" s="3">
-        <v>-8400</v>
+        <v>-12100</v>
       </c>
       <c r="H18" s="3">
-        <v>-17500</v>
+        <v>-8500</v>
       </c>
       <c r="I18" s="3">
-        <v>11700</v>
+        <v>-17900</v>
       </c>
       <c r="J18" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K18" s="3">
         <v>18800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>8100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>6100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F20" s="3">
-        <v>-52600</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>-53700</v>
       </c>
       <c r="H20" s="3">
         <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>10200</v>
+        <v>4900</v>
       </c>
       <c r="J20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,68 +1483,71 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>3700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3100</v>
-      </c>
       <c r="J22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1517,132 +1557,141 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26600</v>
+        <v>-24900</v>
       </c>
       <c r="E23" s="3">
-        <v>-28400</v>
+        <v>-27200</v>
       </c>
       <c r="F23" s="3">
-        <v>-68800</v>
+        <v>-29000</v>
       </c>
       <c r="G23" s="3">
-        <v>-6600</v>
+        <v>-70200</v>
       </c>
       <c r="H23" s="3">
-        <v>-16700</v>
+        <v>-6700</v>
       </c>
       <c r="I23" s="3">
-        <v>18800</v>
+        <v>-17000</v>
       </c>
       <c r="J23" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K23" s="3">
         <v>22800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
-        <v>6700</v>
-      </c>
       <c r="J24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24700</v>
+        <v>-23800</v>
       </c>
       <c r="E26" s="3">
-        <v>-26800</v>
+        <v>-25200</v>
       </c>
       <c r="F26" s="3">
-        <v>-68400</v>
+        <v>-27400</v>
       </c>
       <c r="G26" s="3">
-        <v>-3300</v>
+        <v>-69800</v>
       </c>
       <c r="H26" s="3">
-        <v>-16200</v>
+        <v>-3400</v>
       </c>
       <c r="I26" s="3">
-        <v>12000</v>
+        <v>-16500</v>
       </c>
       <c r="J26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K26" s="3">
         <v>15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24400</v>
+        <v>-26800</v>
       </c>
       <c r="E27" s="3">
-        <v>-25900</v>
+        <v>-24900</v>
       </c>
       <c r="F27" s="3">
-        <v>-69400</v>
+        <v>-26400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2500</v>
+        <v>-70800</v>
       </c>
       <c r="H27" s="3">
-        <v>-13700</v>
+        <v>-2600</v>
       </c>
       <c r="I27" s="3">
-        <v>13300</v>
+        <v>-14000</v>
       </c>
       <c r="J27" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K27" s="3">
         <v>16700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
-        <v>6100</v>
-      </c>
       <c r="F32" s="3">
-        <v>52600</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>53700</v>
       </c>
       <c r="H32" s="3">
         <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-10200</v>
+        <v>-4900</v>
       </c>
       <c r="J32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24400</v>
+        <v>-26800</v>
       </c>
       <c r="E33" s="3">
-        <v>-25900</v>
+        <v>-24900</v>
       </c>
       <c r="F33" s="3">
-        <v>-69400</v>
+        <v>-26400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2500</v>
+        <v>-70800</v>
       </c>
       <c r="H33" s="3">
-        <v>-13700</v>
+        <v>-2600</v>
       </c>
       <c r="I33" s="3">
-        <v>13300</v>
+        <v>-14000</v>
       </c>
       <c r="J33" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K33" s="3">
         <v>16700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24400</v>
+        <v>-26800</v>
       </c>
       <c r="E35" s="3">
-        <v>-25900</v>
+        <v>-24900</v>
       </c>
       <c r="F35" s="3">
-        <v>-69400</v>
+        <v>-26400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2500</v>
+        <v>-70800</v>
       </c>
       <c r="H35" s="3">
-        <v>-13700</v>
+        <v>-2600</v>
       </c>
       <c r="I35" s="3">
-        <v>13300</v>
+        <v>-14000</v>
       </c>
       <c r="J35" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K35" s="3">
         <v>16700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>122600</v>
+        <v>81700</v>
       </c>
       <c r="E41" s="3">
-        <v>176900</v>
+        <v>125100</v>
       </c>
       <c r="F41" s="3">
-        <v>201700</v>
+        <v>180700</v>
       </c>
       <c r="G41" s="3">
-        <v>169200</v>
+        <v>205900</v>
       </c>
       <c r="H41" s="3">
-        <v>182100</v>
+        <v>172700</v>
       </c>
       <c r="I41" s="3">
-        <v>211800</v>
+        <v>185900</v>
       </c>
       <c r="J41" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K41" s="3">
         <v>202600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>197400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>217100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>82800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>145700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2459,56 +2546,59 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>72400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>75900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>71200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>69300</v>
+      </c>
+      <c r="J42" s="3">
         <v>70900</v>
       </c>
-      <c r="E42" s="3">
-        <v>74400</v>
-      </c>
-      <c r="F42" s="3">
-        <v>69700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>58700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>67900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>69400</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>104400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>108700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>120700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>77100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>119900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2518,26 +2608,29 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1500</v>
+        <v>15400</v>
       </c>
       <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2550,8 +2643,8 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2560,14 +2653,14 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,56 +2732,59 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>108700</v>
+        <v>45000</v>
       </c>
       <c r="E45" s="3">
-        <v>81300</v>
+        <v>111000</v>
       </c>
       <c r="F45" s="3">
-        <v>131000</v>
+        <v>83000</v>
       </c>
       <c r="G45" s="3">
-        <v>118500</v>
+        <v>133800</v>
       </c>
       <c r="H45" s="3">
-        <v>65500</v>
+        <v>121000</v>
       </c>
       <c r="I45" s="3">
-        <v>88400</v>
+        <v>66900</v>
       </c>
       <c r="J45" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K45" s="3">
         <v>124000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>299200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2695,56 +2794,59 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>303700</v>
+        <v>207200</v>
       </c>
       <c r="E46" s="3">
-        <v>332700</v>
+        <v>310100</v>
       </c>
       <c r="F46" s="3">
-        <v>405400</v>
+        <v>339700</v>
       </c>
       <c r="G46" s="3">
-        <v>349300</v>
+        <v>413900</v>
       </c>
       <c r="H46" s="3">
-        <v>315400</v>
+        <v>356700</v>
       </c>
       <c r="I46" s="3">
-        <v>369700</v>
+        <v>322100</v>
       </c>
       <c r="J46" s="3">
+        <v>377500</v>
+      </c>
+      <c r="K46" s="3">
         <v>431100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>242300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>281700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>347000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>370000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>185000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>544900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>238900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2754,56 +2856,59 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>164600</v>
+        <v>279100</v>
       </c>
       <c r="E47" s="3">
-        <v>163300</v>
+        <v>168100</v>
       </c>
       <c r="F47" s="3">
-        <v>170000</v>
+        <v>166700</v>
       </c>
       <c r="G47" s="3">
+        <v>173600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>213700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>246000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>235000</v>
+      </c>
+      <c r="K47" s="3">
         <v>209200</v>
       </c>
-      <c r="H47" s="3">
-        <v>240900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>230100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>209200</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>205200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>172500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2813,56 +2918,59 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>311800</v>
+        <v>304300</v>
       </c>
       <c r="E48" s="3">
-        <v>315100</v>
+        <v>318400</v>
       </c>
       <c r="F48" s="3">
-        <v>326600</v>
+        <v>321800</v>
       </c>
       <c r="G48" s="3">
-        <v>357000</v>
+        <v>333600</v>
       </c>
       <c r="H48" s="3">
-        <v>379500</v>
+        <v>364500</v>
       </c>
       <c r="I48" s="3">
-        <v>86800</v>
+        <v>387500</v>
       </c>
       <c r="J48" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K48" s="3">
         <v>85300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>83400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2872,56 +2980,59 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>264600</v>
+        <v>233600</v>
       </c>
       <c r="E49" s="3">
-        <v>268800</v>
+        <v>270100</v>
       </c>
       <c r="F49" s="3">
-        <v>197800</v>
+        <v>274500</v>
       </c>
       <c r="G49" s="3">
-        <v>202300</v>
+        <v>202000</v>
       </c>
       <c r="H49" s="3">
-        <v>148800</v>
+        <v>206600</v>
       </c>
       <c r="I49" s="3">
-        <v>150300</v>
+        <v>151900</v>
       </c>
       <c r="J49" s="3">
+        <v>153500</v>
+      </c>
+      <c r="K49" s="3">
         <v>140000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>131200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>118800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>67800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>68000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>54200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,56 +3166,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>128000</v>
+        <v>67100</v>
       </c>
       <c r="E52" s="3">
-        <v>126900</v>
+        <v>130700</v>
       </c>
       <c r="F52" s="3">
-        <v>73100</v>
+        <v>129600</v>
       </c>
       <c r="G52" s="3">
-        <v>67800</v>
+        <v>74700</v>
       </c>
       <c r="H52" s="3">
-        <v>98400</v>
+        <v>69200</v>
       </c>
       <c r="I52" s="3">
-        <v>90700</v>
+        <v>100500</v>
       </c>
       <c r="J52" s="3">
+        <v>92600</v>
+      </c>
+      <c r="K52" s="3">
         <v>62500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1172700</v>
+        <v>1091400</v>
       </c>
       <c r="E54" s="3">
-        <v>1206700</v>
+        <v>1197500</v>
       </c>
       <c r="F54" s="3">
-        <v>1173000</v>
+        <v>1232200</v>
       </c>
       <c r="G54" s="3">
-        <v>1185600</v>
+        <v>1197800</v>
       </c>
       <c r="H54" s="3">
-        <v>1183000</v>
+        <v>1210700</v>
       </c>
       <c r="I54" s="3">
-        <v>927600</v>
+        <v>1208000</v>
       </c>
       <c r="J54" s="3">
+        <v>947200</v>
+      </c>
+      <c r="K54" s="3">
         <v>928100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>697700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>676400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>588200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>574100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>352400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>657100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>344000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3292,11 +3423,11 @@
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -3304,24 +3435,24 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3331,56 +3462,59 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>170300</v>
+        <v>160000</v>
       </c>
       <c r="E58" s="3">
-        <v>165800</v>
+        <v>173900</v>
       </c>
       <c r="F58" s="3">
-        <v>155800</v>
+        <v>169300</v>
       </c>
       <c r="G58" s="3">
-        <v>68100</v>
+        <v>159100</v>
       </c>
       <c r="H58" s="3">
-        <v>61000</v>
+        <v>69500</v>
       </c>
       <c r="I58" s="3">
-        <v>49100</v>
+        <v>62300</v>
       </c>
       <c r="J58" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K58" s="3">
         <v>56800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7900</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3390,56 +3524,59 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>634800</v>
+        <v>650700</v>
       </c>
       <c r="E59" s="3">
-        <v>616000</v>
+        <v>648200</v>
       </c>
       <c r="F59" s="3">
-        <v>554100</v>
+        <v>629000</v>
       </c>
       <c r="G59" s="3">
-        <v>564700</v>
+        <v>565800</v>
       </c>
       <c r="H59" s="3">
-        <v>564200</v>
+        <v>576700</v>
       </c>
       <c r="I59" s="3">
-        <v>463200</v>
+        <v>576100</v>
       </c>
       <c r="J59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="K59" s="3">
         <v>468200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>416200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>427200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>363700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>375700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>328100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>719900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>293200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3449,56 +3586,59 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>805100</v>
+        <v>810700</v>
       </c>
       <c r="E60" s="3">
-        <v>781700</v>
+        <v>822200</v>
       </c>
       <c r="F60" s="3">
-        <v>709900</v>
+        <v>798300</v>
       </c>
       <c r="G60" s="3">
-        <v>632800</v>
+        <v>724900</v>
       </c>
       <c r="H60" s="3">
-        <v>625200</v>
+        <v>646200</v>
       </c>
       <c r="I60" s="3">
-        <v>518000</v>
+        <v>638400</v>
       </c>
       <c r="J60" s="3">
+        <v>528900</v>
+      </c>
+      <c r="K60" s="3">
         <v>525000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>452300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>441000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>372500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>382200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>336000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>721400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>295100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3508,49 +3648,52 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>159600</v>
+        <v>111000</v>
       </c>
       <c r="E61" s="3">
-        <v>192900</v>
+        <v>163000</v>
       </c>
       <c r="F61" s="3">
-        <v>199300</v>
+        <v>197000</v>
       </c>
       <c r="G61" s="3">
-        <v>204300</v>
+        <v>203500</v>
       </c>
       <c r="H61" s="3">
-        <v>188200</v>
+        <v>208600</v>
       </c>
       <c r="I61" s="3">
-        <v>205600</v>
+        <v>192200</v>
       </c>
       <c r="J61" s="3">
+        <v>210000</v>
+      </c>
+      <c r="K61" s="3">
         <v>204100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>51300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>58800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>56700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>58100</v>
       </c>
       <c r="O61" s="3">
         <v>58100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>58100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3567,56 +3710,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>161200</v>
+        <v>147200</v>
       </c>
       <c r="E62" s="3">
-        <v>164500</v>
+        <v>164600</v>
       </c>
       <c r="F62" s="3">
-        <v>177500</v>
+        <v>168000</v>
       </c>
       <c r="G62" s="3">
-        <v>191900</v>
+        <v>181200</v>
       </c>
       <c r="H62" s="3">
-        <v>207100</v>
+        <v>196000</v>
       </c>
       <c r="I62" s="3">
-        <v>27200</v>
+        <v>211500</v>
       </c>
       <c r="J62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K62" s="3">
         <v>21200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1131000</v>
+        <v>1073100</v>
       </c>
       <c r="E66" s="3">
-        <v>1145500</v>
+        <v>1154900</v>
       </c>
       <c r="F66" s="3">
-        <v>1091900</v>
+        <v>1169700</v>
       </c>
       <c r="G66" s="3">
-        <v>1034300</v>
+        <v>1115000</v>
       </c>
       <c r="H66" s="3">
-        <v>1028000</v>
+        <v>1056200</v>
       </c>
       <c r="I66" s="3">
-        <v>760700</v>
+        <v>1049700</v>
       </c>
       <c r="J66" s="3">
+        <v>776800</v>
+      </c>
+      <c r="K66" s="3">
         <v>769200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>545900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>529100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>444800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>453800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>406700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>726200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>301200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4042,17 +4210,17 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>613000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>604300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>259700</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,56 +4292,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-787700</v>
+        <v>-836400</v>
       </c>
       <c r="E72" s="3">
-        <v>-767400</v>
+        <v>-804300</v>
       </c>
       <c r="F72" s="3">
-        <v>-741500</v>
+        <v>-783600</v>
       </c>
       <c r="G72" s="3">
-        <v>-672100</v>
+        <v>-757200</v>
       </c>
       <c r="H72" s="3">
-        <v>-669600</v>
+        <v>-686300</v>
       </c>
       <c r="I72" s="3">
-        <v>-655900</v>
+        <v>-683800</v>
       </c>
       <c r="J72" s="3">
+        <v>-669800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-669200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-683000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-661500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-634100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-662100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-670500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-674500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-232000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41700</v>
+        <v>18300</v>
       </c>
       <c r="E76" s="3">
-        <v>61200</v>
+        <v>42600</v>
       </c>
       <c r="F76" s="3">
-        <v>81100</v>
+        <v>62500</v>
       </c>
       <c r="G76" s="3">
-        <v>151300</v>
+        <v>82800</v>
       </c>
       <c r="H76" s="3">
-        <v>155000</v>
+        <v>154500</v>
       </c>
       <c r="I76" s="3">
-        <v>166900</v>
+        <v>158300</v>
       </c>
       <c r="J76" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K76" s="3">
         <v>158900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>151800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>147300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>143400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>120400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-667300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-673400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-217000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24400</v>
+        <v>-26800</v>
       </c>
       <c r="E81" s="3">
-        <v>-25900</v>
+        <v>-24900</v>
       </c>
       <c r="F81" s="3">
-        <v>-69400</v>
+        <v>-26400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2500</v>
+        <v>-70800</v>
       </c>
       <c r="H81" s="3">
-        <v>-13700</v>
+        <v>-2600</v>
       </c>
       <c r="I81" s="3">
-        <v>13300</v>
+        <v>-14000</v>
       </c>
       <c r="J81" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K81" s="3">
         <v>16700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4656,18 +4855,18 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,16 +5189,19 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11100</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+        <v>19500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
@@ -5001,8 +5218,8 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5010,18 +5227,18 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>42300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5092,18 +5313,18 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,16 +5461,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>18600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+        <v>16600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>19000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
@@ -5260,8 +5490,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5269,18 +5499,18 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-66700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,16 +5795,19 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>22400</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+        <v>63600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>22900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
@@ -5578,8 +5824,8 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5587,18 +5833,18 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5705,18 +5957,18 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>8</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>145300</v>
+        <v>143400</v>
       </c>
       <c r="E8" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="F8" s="3">
-        <v>157700</v>
+        <v>155700</v>
       </c>
       <c r="G8" s="3">
-        <v>116200</v>
+        <v>114700</v>
       </c>
       <c r="H8" s="3">
-        <v>138200</v>
+        <v>136400</v>
       </c>
       <c r="I8" s="3">
-        <v>124400</v>
+        <v>122800</v>
       </c>
       <c r="J8" s="3">
-        <v>204500</v>
+        <v>201900</v>
       </c>
       <c r="K8" s="3">
         <v>167000</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>84600</v>
+        <v>83500</v>
       </c>
       <c r="E9" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>98700</v>
+      </c>
+      <c r="G9" s="3">
         <v>74300</v>
       </c>
-      <c r="F9" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>75300</v>
-      </c>
       <c r="H9" s="3">
-        <v>82600</v>
+        <v>81500</v>
       </c>
       <c r="I9" s="3">
-        <v>80600</v>
+        <v>79500</v>
       </c>
       <c r="J9" s="3">
-        <v>104100</v>
+        <v>102700</v>
       </c>
       <c r="K9" s="3">
         <v>82900</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>60700</v>
+        <v>59900</v>
       </c>
       <c r="E10" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="F10" s="3">
-        <v>57700</v>
+        <v>56900</v>
       </c>
       <c r="G10" s="3">
-        <v>40900</v>
+        <v>40400</v>
       </c>
       <c r="H10" s="3">
-        <v>55600</v>
+        <v>54900</v>
       </c>
       <c r="I10" s="3">
-        <v>43800</v>
+        <v>43200</v>
       </c>
       <c r="J10" s="3">
-        <v>100500</v>
+        <v>99200</v>
       </c>
       <c r="K10" s="3">
         <v>84200</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>162600</v>
+        <v>160400</v>
       </c>
       <c r="E17" s="3">
-        <v>132300</v>
+        <v>130600</v>
       </c>
       <c r="F17" s="3">
-        <v>175800</v>
+        <v>173500</v>
       </c>
       <c r="G17" s="3">
-        <v>128300</v>
+        <v>126600</v>
       </c>
       <c r="H17" s="3">
-        <v>146700</v>
+        <v>144800</v>
       </c>
       <c r="I17" s="3">
-        <v>142300</v>
+        <v>140400</v>
       </c>
       <c r="J17" s="3">
-        <v>192600</v>
+        <v>190100</v>
       </c>
       <c r="K17" s="3">
         <v>148200</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17200</v>
+        <v>-17000</v>
       </c>
       <c r="E18" s="3">
-        <v>-25500</v>
+        <v>-25200</v>
       </c>
       <c r="F18" s="3">
-        <v>-18100</v>
+        <v>-17800</v>
       </c>
       <c r="G18" s="3">
-        <v>-12100</v>
+        <v>-11900</v>
       </c>
       <c r="H18" s="3">
-        <v>-8500</v>
+        <v>-8400</v>
       </c>
       <c r="I18" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="J18" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="K18" s="3">
         <v>18800</v>
@@ -1392,19 +1392,19 @@
         <v>2400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="G20" s="3">
-        <v>-53700</v>
+        <v>-53000</v>
       </c>
       <c r="H20" s="3">
         <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="J20" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="K20" s="3">
         <v>7400</v>
@@ -1510,19 +1510,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
         <v>4700</v>
       </c>
       <c r="G22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H22" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I22" s="3">
         <v>4000</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24900</v>
+        <v>-24600</v>
       </c>
       <c r="E23" s="3">
-        <v>-27200</v>
+        <v>-26800</v>
       </c>
       <c r="F23" s="3">
-        <v>-29000</v>
+        <v>-28700</v>
       </c>
       <c r="G23" s="3">
-        <v>-70200</v>
+        <v>-69300</v>
       </c>
       <c r="H23" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="I23" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="J23" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="K23" s="3">
         <v>22800</v>
@@ -1652,7 +1652,7 @@
         <v>-500</v>
       </c>
       <c r="J24" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K24" s="3">
         <v>7200</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23800</v>
+        <v>-23500</v>
       </c>
       <c r="E26" s="3">
-        <v>-25200</v>
+        <v>-24900</v>
       </c>
       <c r="F26" s="3">
-        <v>-27400</v>
+        <v>-27000</v>
       </c>
       <c r="G26" s="3">
-        <v>-69800</v>
+        <v>-68900</v>
       </c>
       <c r="H26" s="3">
         <v>-3400</v>
       </c>
       <c r="I26" s="3">
-        <v>-16500</v>
+        <v>-16300</v>
       </c>
       <c r="J26" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="K26" s="3">
         <v>15600</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26800</v>
+        <v>-26500</v>
       </c>
       <c r="E27" s="3">
-        <v>-24900</v>
+        <v>-24600</v>
       </c>
       <c r="F27" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G27" s="3">
-        <v>-70800</v>
+        <v>-69900</v>
       </c>
       <c r="H27" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I27" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="J27" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="K27" s="3">
         <v>16700</v>
@@ -2136,19 +2136,19 @@
         <v>-2400</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G32" s="3">
-        <v>53700</v>
+        <v>53000</v>
       </c>
       <c r="H32" s="3">
         <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="J32" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="K32" s="3">
         <v>-7400</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26800</v>
+        <v>-26500</v>
       </c>
       <c r="E33" s="3">
-        <v>-24900</v>
+        <v>-24600</v>
       </c>
       <c r="F33" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G33" s="3">
-        <v>-70800</v>
+        <v>-69900</v>
       </c>
       <c r="H33" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I33" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="J33" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="K33" s="3">
         <v>16700</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26800</v>
+        <v>-26500</v>
       </c>
       <c r="E35" s="3">
-        <v>-24900</v>
+        <v>-24600</v>
       </c>
       <c r="F35" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G35" s="3">
-        <v>-70800</v>
+        <v>-69900</v>
       </c>
       <c r="H35" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I35" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="J35" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="K35" s="3">
         <v>16700</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81700</v>
+        <v>80600</v>
       </c>
       <c r="E41" s="3">
-        <v>125100</v>
+        <v>123500</v>
       </c>
       <c r="F41" s="3">
-        <v>180700</v>
+        <v>178300</v>
       </c>
       <c r="G41" s="3">
-        <v>205900</v>
+        <v>203300</v>
       </c>
       <c r="H41" s="3">
-        <v>172700</v>
+        <v>170500</v>
       </c>
       <c r="I41" s="3">
-        <v>185900</v>
+        <v>183500</v>
       </c>
       <c r="J41" s="3">
-        <v>216300</v>
+        <v>213500</v>
       </c>
       <c r="K41" s="3">
         <v>202600</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65100</v>
+        <v>64200</v>
       </c>
       <c r="E42" s="3">
-        <v>72400</v>
+        <v>71400</v>
       </c>
       <c r="F42" s="3">
-        <v>75900</v>
+        <v>75000</v>
       </c>
       <c r="G42" s="3">
-        <v>71200</v>
+        <v>70300</v>
       </c>
       <c r="H42" s="3">
-        <v>60000</v>
+        <v>59200</v>
       </c>
       <c r="I42" s="3">
-        <v>69300</v>
+        <v>68400</v>
       </c>
       <c r="J42" s="3">
-        <v>70900</v>
+        <v>70000</v>
       </c>
       <c r="K42" s="3">
         <v>104400</v>
@@ -2617,10 +2617,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="E43" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45000</v>
+        <v>44400</v>
       </c>
       <c r="E45" s="3">
-        <v>111000</v>
+        <v>109600</v>
       </c>
       <c r="F45" s="3">
-        <v>83000</v>
+        <v>81900</v>
       </c>
       <c r="G45" s="3">
-        <v>133800</v>
+        <v>132000</v>
       </c>
       <c r="H45" s="3">
-        <v>121000</v>
+        <v>119400</v>
       </c>
       <c r="I45" s="3">
-        <v>66900</v>
+        <v>66000</v>
       </c>
       <c r="J45" s="3">
-        <v>90300</v>
+        <v>89100</v>
       </c>
       <c r="K45" s="3">
         <v>124000</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>207200</v>
+        <v>204500</v>
       </c>
       <c r="E46" s="3">
-        <v>310100</v>
+        <v>306100</v>
       </c>
       <c r="F46" s="3">
-        <v>339700</v>
+        <v>335300</v>
       </c>
       <c r="G46" s="3">
-        <v>413900</v>
+        <v>408600</v>
       </c>
       <c r="H46" s="3">
-        <v>356700</v>
+        <v>352000</v>
       </c>
       <c r="I46" s="3">
-        <v>322100</v>
+        <v>317900</v>
       </c>
       <c r="J46" s="3">
-        <v>377500</v>
+        <v>372600</v>
       </c>
       <c r="K46" s="3">
         <v>431100</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>279100</v>
+        <v>275500</v>
       </c>
       <c r="E47" s="3">
-        <v>168100</v>
+        <v>165900</v>
       </c>
       <c r="F47" s="3">
-        <v>166700</v>
+        <v>164500</v>
       </c>
       <c r="G47" s="3">
-        <v>173600</v>
+        <v>171400</v>
       </c>
       <c r="H47" s="3">
-        <v>213700</v>
+        <v>210900</v>
       </c>
       <c r="I47" s="3">
-        <v>246000</v>
+        <v>242800</v>
       </c>
       <c r="J47" s="3">
-        <v>235000</v>
+        <v>232000</v>
       </c>
       <c r="K47" s="3">
         <v>209200</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>304300</v>
+        <v>300400</v>
       </c>
       <c r="E48" s="3">
-        <v>318400</v>
+        <v>314300</v>
       </c>
       <c r="F48" s="3">
-        <v>321800</v>
+        <v>317600</v>
       </c>
       <c r="G48" s="3">
-        <v>333600</v>
+        <v>329200</v>
       </c>
       <c r="H48" s="3">
-        <v>364500</v>
+        <v>359800</v>
       </c>
       <c r="I48" s="3">
-        <v>387500</v>
+        <v>382500</v>
       </c>
       <c r="J48" s="3">
-        <v>88600</v>
+        <v>87500</v>
       </c>
       <c r="K48" s="3">
         <v>85300</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>233600</v>
+        <v>230600</v>
       </c>
       <c r="E49" s="3">
-        <v>270100</v>
+        <v>266600</v>
       </c>
       <c r="F49" s="3">
-        <v>274500</v>
+        <v>270900</v>
       </c>
       <c r="G49" s="3">
-        <v>202000</v>
+        <v>199400</v>
       </c>
       <c r="H49" s="3">
-        <v>206600</v>
+        <v>203900</v>
       </c>
       <c r="I49" s="3">
-        <v>151900</v>
+        <v>150000</v>
       </c>
       <c r="J49" s="3">
-        <v>153500</v>
+        <v>151500</v>
       </c>
       <c r="K49" s="3">
         <v>140000</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67100</v>
+        <v>66200</v>
       </c>
       <c r="E52" s="3">
-        <v>130700</v>
+        <v>129000</v>
       </c>
       <c r="F52" s="3">
-        <v>129600</v>
+        <v>127900</v>
       </c>
       <c r="G52" s="3">
-        <v>74700</v>
+        <v>73700</v>
       </c>
       <c r="H52" s="3">
-        <v>69200</v>
+        <v>68300</v>
       </c>
       <c r="I52" s="3">
-        <v>100500</v>
+        <v>99100</v>
       </c>
       <c r="J52" s="3">
-        <v>92600</v>
+        <v>91400</v>
       </c>
       <c r="K52" s="3">
         <v>62500</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1091400</v>
+        <v>1077200</v>
       </c>
       <c r="E54" s="3">
-        <v>1197500</v>
+        <v>1181900</v>
       </c>
       <c r="F54" s="3">
-        <v>1232200</v>
+        <v>1216200</v>
       </c>
       <c r="G54" s="3">
-        <v>1197800</v>
+        <v>1182200</v>
       </c>
       <c r="H54" s="3">
-        <v>1210700</v>
+        <v>1194900</v>
       </c>
       <c r="I54" s="3">
-        <v>1208000</v>
+        <v>1192300</v>
       </c>
       <c r="J54" s="3">
-        <v>947200</v>
+        <v>934900</v>
       </c>
       <c r="K54" s="3">
         <v>928100</v>
@@ -3427,7 +3427,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160000</v>
+        <v>157900</v>
       </c>
       <c r="E58" s="3">
-        <v>173900</v>
+        <v>171700</v>
       </c>
       <c r="F58" s="3">
-        <v>169300</v>
+        <v>167100</v>
       </c>
       <c r="G58" s="3">
-        <v>159100</v>
+        <v>157000</v>
       </c>
       <c r="H58" s="3">
-        <v>69500</v>
+        <v>68600</v>
       </c>
       <c r="I58" s="3">
-        <v>62300</v>
+        <v>61500</v>
       </c>
       <c r="J58" s="3">
-        <v>50200</v>
+        <v>49500</v>
       </c>
       <c r="K58" s="3">
         <v>56800</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>650700</v>
+        <v>642200</v>
       </c>
       <c r="E59" s="3">
-        <v>648200</v>
+        <v>639800</v>
       </c>
       <c r="F59" s="3">
-        <v>629000</v>
+        <v>620800</v>
       </c>
       <c r="G59" s="3">
-        <v>565800</v>
+        <v>558500</v>
       </c>
       <c r="H59" s="3">
-        <v>576700</v>
+        <v>569200</v>
       </c>
       <c r="I59" s="3">
-        <v>576100</v>
+        <v>568600</v>
       </c>
       <c r="J59" s="3">
-        <v>473000</v>
+        <v>466800</v>
       </c>
       <c r="K59" s="3">
         <v>468200</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>810700</v>
+        <v>800100</v>
       </c>
       <c r="E60" s="3">
-        <v>822200</v>
+        <v>811500</v>
       </c>
       <c r="F60" s="3">
-        <v>798300</v>
+        <v>787900</v>
       </c>
       <c r="G60" s="3">
-        <v>724900</v>
+        <v>715500</v>
       </c>
       <c r="H60" s="3">
-        <v>646200</v>
+        <v>637800</v>
       </c>
       <c r="I60" s="3">
-        <v>638400</v>
+        <v>630100</v>
       </c>
       <c r="J60" s="3">
-        <v>528900</v>
+        <v>522000</v>
       </c>
       <c r="K60" s="3">
         <v>525000</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>111000</v>
+        <v>109600</v>
       </c>
       <c r="E61" s="3">
-        <v>163000</v>
+        <v>160800</v>
       </c>
       <c r="F61" s="3">
-        <v>197000</v>
+        <v>194400</v>
       </c>
       <c r="G61" s="3">
-        <v>203500</v>
+        <v>200800</v>
       </c>
       <c r="H61" s="3">
-        <v>208600</v>
+        <v>205900</v>
       </c>
       <c r="I61" s="3">
-        <v>192200</v>
+        <v>189700</v>
       </c>
       <c r="J61" s="3">
-        <v>210000</v>
+        <v>207200</v>
       </c>
       <c r="K61" s="3">
         <v>204100</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>147200</v>
+        <v>145300</v>
       </c>
       <c r="E62" s="3">
-        <v>164600</v>
+        <v>162500</v>
       </c>
       <c r="F62" s="3">
-        <v>168000</v>
+        <v>165800</v>
       </c>
       <c r="G62" s="3">
-        <v>181200</v>
+        <v>178900</v>
       </c>
       <c r="H62" s="3">
-        <v>196000</v>
+        <v>193400</v>
       </c>
       <c r="I62" s="3">
-        <v>211500</v>
+        <v>208800</v>
       </c>
       <c r="J62" s="3">
-        <v>27800</v>
+        <v>27400</v>
       </c>
       <c r="K62" s="3">
         <v>21200</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1073100</v>
+        <v>1059100</v>
       </c>
       <c r="E66" s="3">
-        <v>1154900</v>
+        <v>1139900</v>
       </c>
       <c r="F66" s="3">
-        <v>1169700</v>
+        <v>1154500</v>
       </c>
       <c r="G66" s="3">
-        <v>1115000</v>
+        <v>1100500</v>
       </c>
       <c r="H66" s="3">
-        <v>1056200</v>
+        <v>1042500</v>
       </c>
       <c r="I66" s="3">
-        <v>1049700</v>
+        <v>1036100</v>
       </c>
       <c r="J66" s="3">
-        <v>776800</v>
+        <v>766700</v>
       </c>
       <c r="K66" s="3">
         <v>769200</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-836400</v>
+        <v>-825500</v>
       </c>
       <c r="E72" s="3">
-        <v>-804300</v>
+        <v>-793900</v>
       </c>
       <c r="F72" s="3">
-        <v>-783600</v>
+        <v>-773400</v>
       </c>
       <c r="G72" s="3">
-        <v>-757200</v>
+        <v>-747300</v>
       </c>
       <c r="H72" s="3">
-        <v>-686300</v>
+        <v>-677400</v>
       </c>
       <c r="I72" s="3">
-        <v>-683800</v>
+        <v>-674900</v>
       </c>
       <c r="J72" s="3">
-        <v>-669800</v>
+        <v>-661000</v>
       </c>
       <c r="K72" s="3">
         <v>-669200</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="E76" s="3">
-        <v>42600</v>
+        <v>42000</v>
       </c>
       <c r="F76" s="3">
-        <v>62500</v>
+        <v>61700</v>
       </c>
       <c r="G76" s="3">
-        <v>82800</v>
+        <v>81700</v>
       </c>
       <c r="H76" s="3">
-        <v>154500</v>
+        <v>152500</v>
       </c>
       <c r="I76" s="3">
-        <v>158300</v>
+        <v>156200</v>
       </c>
       <c r="J76" s="3">
-        <v>170400</v>
+        <v>168200</v>
       </c>
       <c r="K76" s="3">
         <v>158900</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26800</v>
+        <v>-26500</v>
       </c>
       <c r="E81" s="3">
-        <v>-24900</v>
+        <v>-24600</v>
       </c>
       <c r="F81" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G81" s="3">
-        <v>-70800</v>
+        <v>-69900</v>
       </c>
       <c r="H81" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I81" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="J81" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="K81" s="3">
         <v>16700</v>
@@ -5198,10 +5198,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="E89" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
@@ -5470,10 +5470,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="E94" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
@@ -5804,10 +5804,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>63600</v>
+        <v>62800</v>
       </c>
       <c r="E100" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>ONE</t>
   </si>
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>143400</v>
+        <v>145900</v>
       </c>
       <c r="E8" s="3">
-        <v>105400</v>
+        <v>107200</v>
       </c>
       <c r="F8" s="3">
-        <v>155700</v>
+        <v>158300</v>
       </c>
       <c r="G8" s="3">
-        <v>114700</v>
+        <v>116600</v>
       </c>
       <c r="H8" s="3">
-        <v>136400</v>
+        <v>138700</v>
       </c>
       <c r="I8" s="3">
-        <v>122800</v>
+        <v>124800</v>
       </c>
       <c r="J8" s="3">
-        <v>201900</v>
+        <v>205300</v>
       </c>
       <c r="K8" s="3">
         <v>167000</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>83500</v>
+        <v>84900</v>
       </c>
       <c r="E9" s="3">
-        <v>73400</v>
+        <v>74600</v>
       </c>
       <c r="F9" s="3">
-        <v>98700</v>
+        <v>100400</v>
       </c>
       <c r="G9" s="3">
-        <v>74300</v>
+        <v>75600</v>
       </c>
       <c r="H9" s="3">
-        <v>81500</v>
+        <v>82900</v>
       </c>
       <c r="I9" s="3">
-        <v>79500</v>
+        <v>80900</v>
       </c>
       <c r="J9" s="3">
-        <v>102700</v>
+        <v>104400</v>
       </c>
       <c r="K9" s="3">
         <v>82900</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59900</v>
+        <v>60900</v>
       </c>
       <c r="E10" s="3">
-        <v>32100</v>
+        <v>32600</v>
       </c>
       <c r="F10" s="3">
-        <v>56900</v>
+        <v>57900</v>
       </c>
       <c r="G10" s="3">
-        <v>40400</v>
+        <v>41100</v>
       </c>
       <c r="H10" s="3">
-        <v>54900</v>
+        <v>55800</v>
       </c>
       <c r="I10" s="3">
-        <v>43200</v>
+        <v>43900</v>
       </c>
       <c r="J10" s="3">
-        <v>99200</v>
+        <v>100800</v>
       </c>
       <c r="K10" s="3">
         <v>84200</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>160400</v>
+        <v>163100</v>
       </c>
       <c r="E17" s="3">
-        <v>130600</v>
+        <v>132800</v>
       </c>
       <c r="F17" s="3">
-        <v>173500</v>
+        <v>176400</v>
       </c>
       <c r="G17" s="3">
-        <v>126600</v>
+        <v>128700</v>
       </c>
       <c r="H17" s="3">
-        <v>144800</v>
+        <v>147300</v>
       </c>
       <c r="I17" s="3">
-        <v>140400</v>
+        <v>142800</v>
       </c>
       <c r="J17" s="3">
-        <v>190100</v>
+        <v>193300</v>
       </c>
       <c r="K17" s="3">
         <v>148200</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17000</v>
+        <v>-17300</v>
       </c>
       <c r="E18" s="3">
-        <v>-25200</v>
+        <v>-25600</v>
       </c>
       <c r="F18" s="3">
-        <v>-17800</v>
+        <v>-18100</v>
       </c>
       <c r="G18" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="H18" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="I18" s="3">
-        <v>-17700</v>
+        <v>-18000</v>
       </c>
       <c r="J18" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="K18" s="3">
         <v>18800</v>
@@ -1392,19 +1392,19 @@
         <v>2400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>-53000</v>
+        <v>-53900</v>
       </c>
       <c r="H20" s="3">
         <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J20" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="K20" s="3">
         <v>7400</v>
@@ -1465,8 +1465,8 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+      <c r="J21" s="3">
+        <v>50000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1510,19 +1510,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
         <v>4700</v>
       </c>
       <c r="G22" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="3">
         <v>4000</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24600</v>
+        <v>-25000</v>
       </c>
       <c r="E23" s="3">
-        <v>-26800</v>
+        <v>-27300</v>
       </c>
       <c r="F23" s="3">
-        <v>-28700</v>
+        <v>-29100</v>
       </c>
       <c r="G23" s="3">
-        <v>-69300</v>
+        <v>-70500</v>
       </c>
       <c r="H23" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="I23" s="3">
-        <v>-16800</v>
+        <v>-17100</v>
       </c>
       <c r="J23" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="K23" s="3">
         <v>22800</v>
@@ -1652,7 +1652,7 @@
         <v>-500</v>
       </c>
       <c r="J24" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K24" s="3">
         <v>7200</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23500</v>
+        <v>-23900</v>
       </c>
       <c r="E26" s="3">
-        <v>-24900</v>
+        <v>-25300</v>
       </c>
       <c r="F26" s="3">
-        <v>-27000</v>
+        <v>-27500</v>
       </c>
       <c r="G26" s="3">
-        <v>-68900</v>
+        <v>-70100</v>
       </c>
       <c r="H26" s="3">
         <v>-3400</v>
       </c>
       <c r="I26" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="J26" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="K26" s="3">
         <v>15600</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-26500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-26100</v>
-      </c>
       <c r="G27" s="3">
-        <v>-69900</v>
+        <v>-71100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I27" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="J27" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="K27" s="3">
         <v>16700</v>
@@ -2136,19 +2136,19 @@
         <v>-2400</v>
       </c>
       <c r="F32" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>53000</v>
+        <v>53900</v>
       </c>
       <c r="H32" s="3">
         <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="J32" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="K32" s="3">
         <v>-7400</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-26500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-26100</v>
-      </c>
       <c r="G33" s="3">
-        <v>-69900</v>
+        <v>-71100</v>
       </c>
       <c r="H33" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I33" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="J33" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="K33" s="3">
         <v>16700</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-26500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-26100</v>
-      </c>
       <c r="G35" s="3">
-        <v>-69900</v>
+        <v>-71100</v>
       </c>
       <c r="H35" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I35" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="J35" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="K35" s="3">
         <v>16700</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80600</v>
+        <v>82000</v>
       </c>
       <c r="E41" s="3">
-        <v>123500</v>
+        <v>125600</v>
       </c>
       <c r="F41" s="3">
-        <v>178300</v>
+        <v>181300</v>
       </c>
       <c r="G41" s="3">
-        <v>203300</v>
+        <v>206700</v>
       </c>
       <c r="H41" s="3">
-        <v>170500</v>
+        <v>173300</v>
       </c>
       <c r="I41" s="3">
-        <v>183500</v>
+        <v>186600</v>
       </c>
       <c r="J41" s="3">
-        <v>213500</v>
+        <v>217100</v>
       </c>
       <c r="K41" s="3">
         <v>202600</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>64200</v>
+        <v>65300</v>
       </c>
       <c r="E42" s="3">
-        <v>71400</v>
+        <v>72600</v>
       </c>
       <c r="F42" s="3">
-        <v>75000</v>
+        <v>76200</v>
       </c>
       <c r="G42" s="3">
-        <v>70300</v>
+        <v>71500</v>
       </c>
       <c r="H42" s="3">
-        <v>59200</v>
+        <v>60200</v>
       </c>
       <c r="I42" s="3">
-        <v>68400</v>
+        <v>69500</v>
       </c>
       <c r="J42" s="3">
-        <v>70000</v>
+        <v>71100</v>
       </c>
       <c r="K42" s="3">
         <v>104400</v>
@@ -2617,16 +2617,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="E43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H43" s="3">
         <v>2900</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44400</v>
+        <v>45100</v>
       </c>
       <c r="E45" s="3">
-        <v>109600</v>
+        <v>111400</v>
       </c>
       <c r="F45" s="3">
-        <v>81900</v>
+        <v>83300</v>
       </c>
       <c r="G45" s="3">
-        <v>132000</v>
+        <v>134200</v>
       </c>
       <c r="H45" s="3">
-        <v>119400</v>
+        <v>121400</v>
       </c>
       <c r="I45" s="3">
-        <v>66000</v>
+        <v>67100</v>
       </c>
       <c r="J45" s="3">
-        <v>89100</v>
+        <v>90600</v>
       </c>
       <c r="K45" s="3">
         <v>124000</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>204500</v>
+        <v>207900</v>
       </c>
       <c r="E46" s="3">
-        <v>306100</v>
+        <v>311200</v>
       </c>
       <c r="F46" s="3">
-        <v>335300</v>
+        <v>340900</v>
       </c>
       <c r="G46" s="3">
-        <v>408600</v>
+        <v>415400</v>
       </c>
       <c r="H46" s="3">
-        <v>352000</v>
+        <v>357900</v>
       </c>
       <c r="I46" s="3">
-        <v>317900</v>
+        <v>323200</v>
       </c>
       <c r="J46" s="3">
-        <v>372600</v>
+        <v>378800</v>
       </c>
       <c r="K46" s="3">
         <v>431100</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>275500</v>
+        <v>280100</v>
       </c>
       <c r="E47" s="3">
-        <v>165900</v>
+        <v>168700</v>
       </c>
       <c r="F47" s="3">
-        <v>164500</v>
+        <v>167300</v>
       </c>
       <c r="G47" s="3">
-        <v>171400</v>
+        <v>174200</v>
       </c>
       <c r="H47" s="3">
-        <v>210900</v>
+        <v>214400</v>
       </c>
       <c r="I47" s="3">
-        <v>242800</v>
+        <v>246900</v>
       </c>
       <c r="J47" s="3">
-        <v>232000</v>
+        <v>235800</v>
       </c>
       <c r="K47" s="3">
         <v>209200</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300400</v>
+        <v>305400</v>
       </c>
       <c r="E48" s="3">
-        <v>314300</v>
+        <v>319500</v>
       </c>
       <c r="F48" s="3">
-        <v>317600</v>
+        <v>322900</v>
       </c>
       <c r="G48" s="3">
-        <v>329200</v>
+        <v>334700</v>
       </c>
       <c r="H48" s="3">
-        <v>359800</v>
+        <v>365800</v>
       </c>
       <c r="I48" s="3">
-        <v>382500</v>
+        <v>388900</v>
       </c>
       <c r="J48" s="3">
-        <v>87500</v>
+        <v>88900</v>
       </c>
       <c r="K48" s="3">
         <v>85300</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>230600</v>
+        <v>234500</v>
       </c>
       <c r="E49" s="3">
-        <v>266600</v>
+        <v>271100</v>
       </c>
       <c r="F49" s="3">
-        <v>270900</v>
+        <v>275400</v>
       </c>
       <c r="G49" s="3">
-        <v>199400</v>
+        <v>202700</v>
       </c>
       <c r="H49" s="3">
-        <v>203900</v>
+        <v>207300</v>
       </c>
       <c r="I49" s="3">
-        <v>150000</v>
+        <v>152500</v>
       </c>
       <c r="J49" s="3">
-        <v>151500</v>
+        <v>154000</v>
       </c>
       <c r="K49" s="3">
         <v>140000</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66200</v>
+        <v>67400</v>
       </c>
       <c r="E52" s="3">
-        <v>129000</v>
+        <v>131200</v>
       </c>
       <c r="F52" s="3">
-        <v>127900</v>
+        <v>130000</v>
       </c>
       <c r="G52" s="3">
-        <v>73700</v>
+        <v>74900</v>
       </c>
       <c r="H52" s="3">
-        <v>68300</v>
+        <v>69500</v>
       </c>
       <c r="I52" s="3">
-        <v>99100</v>
+        <v>100800</v>
       </c>
       <c r="J52" s="3">
-        <v>91400</v>
+        <v>93000</v>
       </c>
       <c r="K52" s="3">
         <v>62500</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1077200</v>
+        <v>1095200</v>
       </c>
       <c r="E54" s="3">
-        <v>1181900</v>
+        <v>1201700</v>
       </c>
       <c r="F54" s="3">
-        <v>1216200</v>
+        <v>1236600</v>
       </c>
       <c r="G54" s="3">
-        <v>1182200</v>
+        <v>1202000</v>
       </c>
       <c r="H54" s="3">
-        <v>1194900</v>
+        <v>1215000</v>
       </c>
       <c r="I54" s="3">
-        <v>1192300</v>
+        <v>1212200</v>
       </c>
       <c r="J54" s="3">
-        <v>934900</v>
+        <v>950600</v>
       </c>
       <c r="K54" s="3">
         <v>928100</v>
@@ -3427,7 +3427,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>157900</v>
+        <v>160500</v>
       </c>
       <c r="E58" s="3">
-        <v>171700</v>
+        <v>174600</v>
       </c>
       <c r="F58" s="3">
-        <v>167100</v>
+        <v>169900</v>
       </c>
       <c r="G58" s="3">
-        <v>157000</v>
+        <v>159600</v>
       </c>
       <c r="H58" s="3">
-        <v>68600</v>
+        <v>69800</v>
       </c>
       <c r="I58" s="3">
-        <v>61500</v>
+        <v>62600</v>
       </c>
       <c r="J58" s="3">
-        <v>49500</v>
+        <v>50400</v>
       </c>
       <c r="K58" s="3">
         <v>56800</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>642200</v>
+        <v>653000</v>
       </c>
       <c r="E59" s="3">
-        <v>639800</v>
+        <v>650500</v>
       </c>
       <c r="F59" s="3">
-        <v>620800</v>
+        <v>631200</v>
       </c>
       <c r="G59" s="3">
-        <v>558500</v>
+        <v>567800</v>
       </c>
       <c r="H59" s="3">
-        <v>569200</v>
+        <v>578700</v>
       </c>
       <c r="I59" s="3">
-        <v>568600</v>
+        <v>578100</v>
       </c>
       <c r="J59" s="3">
-        <v>466800</v>
+        <v>474600</v>
       </c>
       <c r="K59" s="3">
         <v>468200</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800100</v>
+        <v>813500</v>
       </c>
       <c r="E60" s="3">
-        <v>811500</v>
+        <v>825100</v>
       </c>
       <c r="F60" s="3">
-        <v>787900</v>
+        <v>801100</v>
       </c>
       <c r="G60" s="3">
-        <v>715500</v>
+        <v>727500</v>
       </c>
       <c r="H60" s="3">
-        <v>637800</v>
+        <v>648500</v>
       </c>
       <c r="I60" s="3">
-        <v>630100</v>
+        <v>640700</v>
       </c>
       <c r="J60" s="3">
-        <v>522000</v>
+        <v>530800</v>
       </c>
       <c r="K60" s="3">
         <v>525000</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>109600</v>
+        <v>111400</v>
       </c>
       <c r="E61" s="3">
-        <v>160800</v>
+        <v>163500</v>
       </c>
       <c r="F61" s="3">
-        <v>194400</v>
+        <v>197700</v>
       </c>
       <c r="G61" s="3">
-        <v>200800</v>
+        <v>204200</v>
       </c>
       <c r="H61" s="3">
-        <v>205900</v>
+        <v>209400</v>
       </c>
       <c r="I61" s="3">
-        <v>189700</v>
+        <v>192900</v>
       </c>
       <c r="J61" s="3">
-        <v>207200</v>
+        <v>210700</v>
       </c>
       <c r="K61" s="3">
         <v>204100</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>145300</v>
+        <v>147700</v>
       </c>
       <c r="E62" s="3">
-        <v>162500</v>
+        <v>165200</v>
       </c>
       <c r="F62" s="3">
-        <v>165800</v>
+        <v>168600</v>
       </c>
       <c r="G62" s="3">
-        <v>178900</v>
+        <v>181900</v>
       </c>
       <c r="H62" s="3">
-        <v>193400</v>
+        <v>196700</v>
       </c>
       <c r="I62" s="3">
-        <v>208800</v>
+        <v>212300</v>
       </c>
       <c r="J62" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="K62" s="3">
         <v>21200</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1059100</v>
+        <v>1076900</v>
       </c>
       <c r="E66" s="3">
-        <v>1139900</v>
+        <v>1159000</v>
       </c>
       <c r="F66" s="3">
-        <v>1154500</v>
+        <v>1173800</v>
       </c>
       <c r="G66" s="3">
-        <v>1100500</v>
+        <v>1118900</v>
       </c>
       <c r="H66" s="3">
-        <v>1042500</v>
+        <v>1059900</v>
       </c>
       <c r="I66" s="3">
-        <v>1036100</v>
+        <v>1053400</v>
       </c>
       <c r="J66" s="3">
-        <v>766700</v>
+        <v>779500</v>
       </c>
       <c r="K66" s="3">
         <v>769200</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-825500</v>
+        <v>-839300</v>
       </c>
       <c r="E72" s="3">
-        <v>-793900</v>
+        <v>-807200</v>
       </c>
       <c r="F72" s="3">
-        <v>-773400</v>
+        <v>-786400</v>
       </c>
       <c r="G72" s="3">
-        <v>-747300</v>
+        <v>-759900</v>
       </c>
       <c r="H72" s="3">
-        <v>-677400</v>
+        <v>-688800</v>
       </c>
       <c r="I72" s="3">
-        <v>-674900</v>
+        <v>-686200</v>
       </c>
       <c r="J72" s="3">
-        <v>-661000</v>
+        <v>-672100</v>
       </c>
       <c r="K72" s="3">
         <v>-669200</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="E76" s="3">
-        <v>42000</v>
+        <v>42800</v>
       </c>
       <c r="F76" s="3">
-        <v>61700</v>
+        <v>62700</v>
       </c>
       <c r="G76" s="3">
-        <v>81700</v>
+        <v>83100</v>
       </c>
       <c r="H76" s="3">
-        <v>152500</v>
+        <v>155000</v>
       </c>
       <c r="I76" s="3">
-        <v>156200</v>
+        <v>158800</v>
       </c>
       <c r="J76" s="3">
-        <v>168200</v>
+        <v>171000</v>
       </c>
       <c r="K76" s="3">
         <v>158900</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-26500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-26100</v>
-      </c>
       <c r="G81" s="3">
-        <v>-69900</v>
+        <v>-71100</v>
       </c>
       <c r="H81" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I81" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="J81" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="K81" s="3">
         <v>16700</v>
@@ -4825,26 +4825,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>27500</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5198,10 +5198,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19300</v>
+        <v>19600</v>
       </c>
       <c r="E89" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
@@ -5215,8 +5215,8 @@
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+      <c r="J89" s="3">
+        <v>54100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -5283,26 +5283,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-44500</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5470,10 +5470,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="E94" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
@@ -5487,8 +5487,8 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>-218000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -5804,10 +5804,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>62800</v>
+        <v>63800</v>
       </c>
       <c r="E100" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
@@ -5821,8 +5821,8 @@
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="J100" s="3">
+        <v>154700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -5865,26 +5865,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5927,26 +5927,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONE_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>145900</v>
+        <v>147000</v>
       </c>
       <c r="E8" s="3">
-        <v>107200</v>
+        <v>108000</v>
       </c>
       <c r="F8" s="3">
-        <v>158300</v>
+        <v>159500</v>
       </c>
       <c r="G8" s="3">
-        <v>116600</v>
+        <v>117500</v>
       </c>
       <c r="H8" s="3">
-        <v>138700</v>
+        <v>139700</v>
       </c>
       <c r="I8" s="3">
-        <v>124800</v>
+        <v>125800</v>
       </c>
       <c r="J8" s="3">
-        <v>205300</v>
+        <v>206800</v>
       </c>
       <c r="K8" s="3">
         <v>167000</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>84900</v>
+        <v>85600</v>
       </c>
       <c r="E9" s="3">
-        <v>74600</v>
+        <v>75200</v>
       </c>
       <c r="F9" s="3">
-        <v>100400</v>
+        <v>101200</v>
       </c>
       <c r="G9" s="3">
-        <v>75600</v>
+        <v>76100</v>
       </c>
       <c r="H9" s="3">
-        <v>82900</v>
+        <v>83500</v>
       </c>
       <c r="I9" s="3">
-        <v>80900</v>
+        <v>81500</v>
       </c>
       <c r="J9" s="3">
-        <v>104400</v>
+        <v>105200</v>
       </c>
       <c r="K9" s="3">
         <v>82900</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>60900</v>
+        <v>61400</v>
       </c>
       <c r="E10" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="F10" s="3">
-        <v>57900</v>
+        <v>58300</v>
       </c>
       <c r="G10" s="3">
-        <v>41100</v>
+        <v>41400</v>
       </c>
       <c r="H10" s="3">
-        <v>55800</v>
+        <v>56200</v>
       </c>
       <c r="I10" s="3">
-        <v>43900</v>
+        <v>44300</v>
       </c>
       <c r="J10" s="3">
-        <v>100800</v>
+        <v>101600</v>
       </c>
       <c r="K10" s="3">
         <v>84200</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>163100</v>
+        <v>164400</v>
       </c>
       <c r="E17" s="3">
-        <v>132800</v>
+        <v>133800</v>
       </c>
       <c r="F17" s="3">
-        <v>176400</v>
+        <v>177800</v>
       </c>
       <c r="G17" s="3">
-        <v>128700</v>
+        <v>129700</v>
       </c>
       <c r="H17" s="3">
-        <v>147300</v>
+        <v>148400</v>
       </c>
       <c r="I17" s="3">
-        <v>142800</v>
+        <v>143900</v>
       </c>
       <c r="J17" s="3">
-        <v>193300</v>
+        <v>194800</v>
       </c>
       <c r="K17" s="3">
         <v>148200</v>
@@ -1300,22 +1300,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="E18" s="3">
-        <v>-25600</v>
+        <v>-25800</v>
       </c>
       <c r="F18" s="3">
-        <v>-18100</v>
+        <v>-18300</v>
       </c>
       <c r="G18" s="3">
-        <v>-12100</v>
+        <v>-12200</v>
       </c>
       <c r="H18" s="3">
         <v>-8600</v>
       </c>
       <c r="I18" s="3">
-        <v>-18000</v>
+        <v>-18100</v>
       </c>
       <c r="J18" s="3">
         <v>12000</v>
@@ -1389,22 +1389,22 @@
         <v>-3400</v>
       </c>
       <c r="E20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="3">
         <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>-53900</v>
+        <v>-54300</v>
       </c>
       <c r="H20" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
         <v>4900</v>
       </c>
       <c r="J20" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="K20" s="3">
         <v>7400</v>
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1516,7 +1516,7 @@
         <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="3">
         <v>4500</v>
@@ -1525,7 +1525,7 @@
         <v>3000</v>
       </c>
       <c r="I22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J22" s="3">
         <v>3200</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25000</v>
+        <v>-25200</v>
       </c>
       <c r="E23" s="3">
-        <v>-27300</v>
+        <v>-27500</v>
       </c>
       <c r="F23" s="3">
-        <v>-29100</v>
+        <v>-29400</v>
       </c>
       <c r="G23" s="3">
-        <v>-70500</v>
+        <v>-71000</v>
       </c>
       <c r="H23" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="I23" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="J23" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="K23" s="3">
         <v>22800</v>
@@ -1652,7 +1652,7 @@
         <v>-500</v>
       </c>
       <c r="J24" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="K24" s="3">
         <v>7200</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="E26" s="3">
-        <v>-25300</v>
+        <v>-25500</v>
       </c>
       <c r="F26" s="3">
-        <v>-27500</v>
+        <v>-27700</v>
       </c>
       <c r="G26" s="3">
-        <v>-70100</v>
+        <v>-70600</v>
       </c>
       <c r="H26" s="3">
         <v>-3400</v>
       </c>
       <c r="I26" s="3">
-        <v>-16600</v>
+        <v>-16700</v>
       </c>
       <c r="J26" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="K26" s="3">
         <v>15600</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="E27" s="3">
-        <v>-25000</v>
+        <v>-25200</v>
       </c>
       <c r="F27" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="G27" s="3">
-        <v>-71100</v>
+        <v>-71600</v>
       </c>
       <c r="H27" s="3">
         <v>-2600</v>
       </c>
       <c r="I27" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="J27" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K27" s="3">
         <v>16700</v>
@@ -2133,22 +2133,22 @@
         <v>3400</v>
       </c>
       <c r="E32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="F32" s="3">
         <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>53900</v>
+        <v>54300</v>
       </c>
       <c r="H32" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
         <v>-4900</v>
       </c>
       <c r="J32" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="K32" s="3">
         <v>-7400</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="E33" s="3">
-        <v>-25000</v>
+        <v>-25200</v>
       </c>
       <c r="F33" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="G33" s="3">
-        <v>-71100</v>
+        <v>-71600</v>
       </c>
       <c r="H33" s="3">
         <v>-2600</v>
       </c>
       <c r="I33" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="J33" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K33" s="3">
         <v>16700</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="E35" s="3">
-        <v>-25000</v>
+        <v>-25200</v>
       </c>
       <c r="F35" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="G35" s="3">
-        <v>-71100</v>
+        <v>-71600</v>
       </c>
       <c r="H35" s="3">
         <v>-2600</v>
       </c>
       <c r="I35" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="J35" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K35" s="3">
         <v>16700</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82000</v>
+        <v>82600</v>
       </c>
       <c r="E41" s="3">
-        <v>125600</v>
+        <v>126600</v>
       </c>
       <c r="F41" s="3">
-        <v>181300</v>
+        <v>182700</v>
       </c>
       <c r="G41" s="3">
-        <v>206700</v>
+        <v>208200</v>
       </c>
       <c r="H41" s="3">
-        <v>173300</v>
+        <v>174700</v>
       </c>
       <c r="I41" s="3">
-        <v>186600</v>
+        <v>188000</v>
       </c>
       <c r="J41" s="3">
-        <v>217100</v>
+        <v>218700</v>
       </c>
       <c r="K41" s="3">
         <v>202600</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65300</v>
+        <v>65800</v>
       </c>
       <c r="E42" s="3">
-        <v>72600</v>
+        <v>73200</v>
       </c>
       <c r="F42" s="3">
-        <v>76200</v>
+        <v>76800</v>
       </c>
       <c r="G42" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="H42" s="3">
-        <v>60200</v>
+        <v>60600</v>
       </c>
       <c r="I42" s="3">
-        <v>69500</v>
+        <v>70100</v>
       </c>
       <c r="J42" s="3">
-        <v>71100</v>
+        <v>71700</v>
       </c>
       <c r="K42" s="3">
         <v>104400</v>
@@ -2617,7 +2617,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E43" s="3">
         <v>1600</v>
@@ -2629,7 +2629,7 @@
         <v>3100</v>
       </c>
       <c r="H43" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45100</v>
+        <v>45500</v>
       </c>
       <c r="E45" s="3">
-        <v>111400</v>
+        <v>112300</v>
       </c>
       <c r="F45" s="3">
-        <v>83300</v>
+        <v>83900</v>
       </c>
       <c r="G45" s="3">
-        <v>134200</v>
+        <v>135300</v>
       </c>
       <c r="H45" s="3">
-        <v>121400</v>
+        <v>122400</v>
       </c>
       <c r="I45" s="3">
-        <v>67100</v>
+        <v>67600</v>
       </c>
       <c r="J45" s="3">
-        <v>90600</v>
+        <v>91300</v>
       </c>
       <c r="K45" s="3">
         <v>124000</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>207900</v>
+        <v>209500</v>
       </c>
       <c r="E46" s="3">
-        <v>311200</v>
+        <v>313600</v>
       </c>
       <c r="F46" s="3">
-        <v>340900</v>
+        <v>343500</v>
       </c>
       <c r="G46" s="3">
-        <v>415400</v>
+        <v>418600</v>
       </c>
       <c r="H46" s="3">
-        <v>357900</v>
+        <v>360700</v>
       </c>
       <c r="I46" s="3">
-        <v>323200</v>
+        <v>325700</v>
       </c>
       <c r="J46" s="3">
-        <v>378800</v>
+        <v>381700</v>
       </c>
       <c r="K46" s="3">
         <v>431100</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>280100</v>
+        <v>282200</v>
       </c>
       <c r="E47" s="3">
-        <v>168700</v>
+        <v>170000</v>
       </c>
       <c r="F47" s="3">
-        <v>167300</v>
+        <v>168600</v>
       </c>
       <c r="G47" s="3">
-        <v>174200</v>
+        <v>175600</v>
       </c>
       <c r="H47" s="3">
-        <v>214400</v>
+        <v>216100</v>
       </c>
       <c r="I47" s="3">
-        <v>246900</v>
+        <v>248800</v>
       </c>
       <c r="J47" s="3">
-        <v>235800</v>
+        <v>237600</v>
       </c>
       <c r="K47" s="3">
         <v>209200</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>305400</v>
+        <v>307700</v>
       </c>
       <c r="E48" s="3">
-        <v>319500</v>
+        <v>322000</v>
       </c>
       <c r="F48" s="3">
-        <v>322900</v>
+        <v>325400</v>
       </c>
       <c r="G48" s="3">
-        <v>334700</v>
+        <v>337300</v>
       </c>
       <c r="H48" s="3">
-        <v>365800</v>
+        <v>368600</v>
       </c>
       <c r="I48" s="3">
-        <v>388900</v>
+        <v>391900</v>
       </c>
       <c r="J48" s="3">
-        <v>88900</v>
+        <v>89600</v>
       </c>
       <c r="K48" s="3">
         <v>85300</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>234500</v>
+        <v>236300</v>
       </c>
       <c r="E49" s="3">
-        <v>271100</v>
+        <v>273200</v>
       </c>
       <c r="F49" s="3">
-        <v>275400</v>
+        <v>277600</v>
       </c>
       <c r="G49" s="3">
-        <v>202700</v>
+        <v>204300</v>
       </c>
       <c r="H49" s="3">
-        <v>207300</v>
+        <v>208900</v>
       </c>
       <c r="I49" s="3">
-        <v>152500</v>
+        <v>153600</v>
       </c>
       <c r="J49" s="3">
-        <v>154000</v>
+        <v>155200</v>
       </c>
       <c r="K49" s="3">
         <v>140000</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67400</v>
+        <v>67900</v>
       </c>
       <c r="E52" s="3">
-        <v>131200</v>
+        <v>132200</v>
       </c>
       <c r="F52" s="3">
-        <v>130000</v>
+        <v>131000</v>
       </c>
       <c r="G52" s="3">
-        <v>74900</v>
+        <v>75500</v>
       </c>
       <c r="H52" s="3">
-        <v>69500</v>
+        <v>70000</v>
       </c>
       <c r="I52" s="3">
-        <v>100800</v>
+        <v>101600</v>
       </c>
       <c r="J52" s="3">
-        <v>93000</v>
+        <v>93700</v>
       </c>
       <c r="K52" s="3">
         <v>62500</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1095200</v>
+        <v>1103600</v>
       </c>
       <c r="E54" s="3">
-        <v>1201700</v>
+        <v>1210900</v>
       </c>
       <c r="F54" s="3">
-        <v>1236600</v>
+        <v>1246100</v>
       </c>
       <c r="G54" s="3">
-        <v>1202000</v>
+        <v>1211200</v>
       </c>
       <c r="H54" s="3">
-        <v>1215000</v>
+        <v>1224300</v>
       </c>
       <c r="I54" s="3">
-        <v>1212200</v>
+        <v>1221500</v>
       </c>
       <c r="J54" s="3">
-        <v>950600</v>
+        <v>957800</v>
       </c>
       <c r="K54" s="3">
         <v>928100</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160500</v>
+        <v>161800</v>
       </c>
       <c r="E58" s="3">
-        <v>174600</v>
+        <v>175900</v>
       </c>
       <c r="F58" s="3">
-        <v>169900</v>
+        <v>171200</v>
       </c>
       <c r="G58" s="3">
-        <v>159600</v>
+        <v>160800</v>
       </c>
       <c r="H58" s="3">
-        <v>69800</v>
+        <v>70300</v>
       </c>
       <c r="I58" s="3">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="J58" s="3">
-        <v>50400</v>
+        <v>50800</v>
       </c>
       <c r="K58" s="3">
         <v>56800</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>653000</v>
+        <v>658000</v>
       </c>
       <c r="E59" s="3">
-        <v>650500</v>
+        <v>655500</v>
       </c>
       <c r="F59" s="3">
-        <v>631200</v>
+        <v>636100</v>
       </c>
       <c r="G59" s="3">
-        <v>567800</v>
+        <v>572200</v>
       </c>
       <c r="H59" s="3">
-        <v>578700</v>
+        <v>583100</v>
       </c>
       <c r="I59" s="3">
-        <v>578100</v>
+        <v>582600</v>
       </c>
       <c r="J59" s="3">
-        <v>474600</v>
+        <v>478300</v>
       </c>
       <c r="K59" s="3">
         <v>468200</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>813500</v>
+        <v>819700</v>
       </c>
       <c r="E60" s="3">
-        <v>825100</v>
+        <v>831400</v>
       </c>
       <c r="F60" s="3">
-        <v>801100</v>
+        <v>807200</v>
       </c>
       <c r="G60" s="3">
-        <v>727500</v>
+        <v>733000</v>
       </c>
       <c r="H60" s="3">
-        <v>648500</v>
+        <v>653400</v>
       </c>
       <c r="I60" s="3">
-        <v>640700</v>
+        <v>645600</v>
       </c>
       <c r="J60" s="3">
-        <v>530800</v>
+        <v>534900</v>
       </c>
       <c r="K60" s="3">
         <v>525000</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>111400</v>
+        <v>112300</v>
       </c>
       <c r="E61" s="3">
-        <v>163500</v>
+        <v>164800</v>
       </c>
       <c r="F61" s="3">
-        <v>197700</v>
+        <v>199200</v>
       </c>
       <c r="G61" s="3">
-        <v>204200</v>
+        <v>205800</v>
       </c>
       <c r="H61" s="3">
-        <v>209400</v>
+        <v>211000</v>
       </c>
       <c r="I61" s="3">
-        <v>192900</v>
+        <v>194400</v>
       </c>
       <c r="J61" s="3">
-        <v>210700</v>
+        <v>212300</v>
       </c>
       <c r="K61" s="3">
         <v>204100</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>147700</v>
+        <v>148800</v>
       </c>
       <c r="E62" s="3">
-        <v>165200</v>
+        <v>166500</v>
       </c>
       <c r="F62" s="3">
-        <v>168600</v>
+        <v>169900</v>
       </c>
       <c r="G62" s="3">
-        <v>181900</v>
+        <v>183300</v>
       </c>
       <c r="H62" s="3">
-        <v>196700</v>
+        <v>198200</v>
       </c>
       <c r="I62" s="3">
-        <v>212300</v>
+        <v>213900</v>
       </c>
       <c r="J62" s="3">
-        <v>27900</v>
+        <v>28100</v>
       </c>
       <c r="K62" s="3">
         <v>21200</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1076900</v>
+        <v>1085100</v>
       </c>
       <c r="E66" s="3">
-        <v>1159000</v>
+        <v>1167900</v>
       </c>
       <c r="F66" s="3">
-        <v>1173800</v>
+        <v>1182800</v>
       </c>
       <c r="G66" s="3">
-        <v>1118900</v>
+        <v>1127500</v>
       </c>
       <c r="H66" s="3">
-        <v>1059900</v>
+        <v>1068100</v>
       </c>
       <c r="I66" s="3">
-        <v>1053400</v>
+        <v>1061500</v>
       </c>
       <c r="J66" s="3">
-        <v>779500</v>
+        <v>785500</v>
       </c>
       <c r="K66" s="3">
         <v>769200</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-839300</v>
+        <v>-845700</v>
       </c>
       <c r="E72" s="3">
-        <v>-807200</v>
+        <v>-813300</v>
       </c>
       <c r="F72" s="3">
-        <v>-786400</v>
+        <v>-792400</v>
       </c>
       <c r="G72" s="3">
-        <v>-759900</v>
+        <v>-765700</v>
       </c>
       <c r="H72" s="3">
-        <v>-688800</v>
+        <v>-694000</v>
       </c>
       <c r="I72" s="3">
-        <v>-686200</v>
+        <v>-691500</v>
       </c>
       <c r="J72" s="3">
-        <v>-672100</v>
+        <v>-677300</v>
       </c>
       <c r="K72" s="3">
         <v>-669200</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="E76" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="F76" s="3">
-        <v>62700</v>
+        <v>63200</v>
       </c>
       <c r="G76" s="3">
-        <v>83100</v>
+        <v>83700</v>
       </c>
       <c r="H76" s="3">
-        <v>155000</v>
+        <v>156200</v>
       </c>
       <c r="I76" s="3">
-        <v>158800</v>
+        <v>160000</v>
       </c>
       <c r="J76" s="3">
-        <v>171000</v>
+        <v>172300</v>
       </c>
       <c r="K76" s="3">
         <v>158900</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="E81" s="3">
-        <v>-25000</v>
+        <v>-25200</v>
       </c>
       <c r="F81" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="G81" s="3">
-        <v>-71100</v>
+        <v>-71600</v>
       </c>
       <c r="H81" s="3">
         <v>-2600</v>
       </c>
       <c r="I81" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="J81" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K81" s="3">
         <v>16700</v>
@@ -4844,7 +4844,7 @@
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5198,10 +5198,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="E89" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
@@ -5216,7 +5216,7 @@
         <v>8</v>
       </c>
       <c r="J89" s="3">
-        <v>54100</v>
+        <v>54500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -5302,7 +5302,7 @@
         <v>8</v>
       </c>
       <c r="J91" s="3">
-        <v>-44500</v>
+        <v>-44800</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5470,10 +5470,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="E94" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
@@ -5488,7 +5488,7 @@
         <v>8</v>
       </c>
       <c r="J94" s="3">
-        <v>-218000</v>
+        <v>-219700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -5804,10 +5804,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>63800</v>
+        <v>64300</v>
       </c>
       <c r="E100" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
@@ -5822,7 +5822,7 @@
         <v>8</v>
       </c>
       <c r="J100" s="3">
-        <v>154700</v>
+        <v>155900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
